--- a/outdata/io_imp2014.xlsx
+++ b/outdata/io_imp2014.xlsx
@@ -67713,4 +67713,196 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101001B5D64AB0C21E743B0946431DB85BECD" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="e8891e6613dc1e274f3bfe40586e2186">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d070ba9-5dd2-4ec6-9127-c85124792d21" xmlns:ns3="f6d38416-0c3a-40f5-a98e-64d30975dddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8a6f819ee994c46a24c3d62cafa1a62" ns2:_="" ns3:_="">
+    <xsd:import namespace="5d070ba9-5dd2-4ec6-9127-c85124792d21"/>
+    <xsd:import namespace="f6d38416-0c3a-40f5-a98e-64d30975dddf"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d070ba9-5dd2-4ec6-9127-c85124792d21" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f6d38416-0c3a-40f5-a98e-64d30975dddf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Jaettu" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Jakamisen tiedot" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Sisältölaji"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Otsikko"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8115B775-646C-4031-9A45-88A3B60A3F9C}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DCA9BBF-9908-4143-A8B7-D89A0EC8A7B5}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2909F209-28A8-4E31-94B5-CE69B7D94423}"/>
 </file>
--- a/outdata/io_imp2014.xlsx
+++ b/outdata/io_imp2014.xlsx
@@ -67896,13 +67896,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8115B775-646C-4031-9A45-88A3B60A3F9C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FC1113-6B9B-4477-BFBC-18F860287B61}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DCA9BBF-9908-4143-A8B7-D89A0EC8A7B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D522884F-DEBF-4DC2-A0B6-2066DBEFC530}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2909F209-28A8-4E31-94B5-CE69B7D94423}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CBB85F5-7E7B-42F7-9C4D-730A95223CDC}"/>
 </file>
--- a/outdata/io_imp2014.xlsx
+++ b/outdata/io_imp2014.xlsx
@@ -32,201 +32,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="35">
   <si>
-    <t>I_01</t>
+    <t>01 Maatalous ja metsästys</t>
   </si>
   <si>
-    <t>I_02_03</t>
+    <t>02_03 Metsätalous ja kalatalous</t>
   </si>
   <si>
-    <t>I_05_09</t>
+    <t>05_09 Kaivostoiminta ja louhinta</t>
   </si>
   <si>
-    <t>I_10_12</t>
+    <t>10_12 Elintarviketeollisuus ym.</t>
   </si>
   <si>
-    <t>I_13_15</t>
+    <t>13_15 Tekstiili-, vaatetus- ja nahkateollisuus</t>
   </si>
   <si>
-    <t>I_16</t>
+    <t>16 Puuteollisuus</t>
   </si>
   <si>
-    <t>I_17_18</t>
+    <t>17_18 Paperiteollisuus ja painaminen</t>
   </si>
   <si>
-    <t>I_19_22</t>
+    <t>19_22 Kemianteollisuus</t>
   </si>
   <si>
-    <t>I_23</t>
+    <t>23 Rakennusaineteollisuus</t>
   </si>
   <si>
-    <t>I_24_25</t>
+    <t>24_25 Metallien jalostus ja metallituotteiden valmistus (pl. koneet ja laitteet)</t>
   </si>
   <si>
-    <t>I_26_27</t>
+    <t>26_27 Sähkö- ja elektroniikkateollisuus</t>
   </si>
   <si>
-    <t>I_28</t>
+    <t>28 Muiden koneiden ja laitteiden valmistus</t>
   </si>
   <si>
-    <t>I_29_30</t>
+    <t>29_30 Kulkuneuvojen valmistus</t>
   </si>
   <si>
-    <t>I_31_33</t>
+    <t>31_33 Huonekalujen valmistus: Muu teollinen valmistus: Koneiden ja laitteiden korjaus, huolto ja ase</t>
   </si>
   <si>
-    <t>I_35_39</t>
+    <t>35_39 Energiahuolto: Vesi- ja jätehuolto</t>
   </si>
   <si>
-    <t>I_41_43</t>
+    <t>41_43 Rakentaminen</t>
   </si>
   <si>
-    <t>I_45_47</t>
+    <t>45_47 Tukku- ja vähittäiskauppa, moottoriajoneuvojen ja moottoripyörien korjaus</t>
   </si>
   <si>
-    <t>I_49_53</t>
+    <t>49_53 Kuljetus ja varastointi</t>
   </si>
   <si>
-    <t>I_55_56</t>
+    <t>55_56 Majoitus- ja ravitsemistoiminta</t>
   </si>
   <si>
-    <t>I_58_63</t>
+    <t>58_63 Kustannustoiminta: Audiovisuaalinen toiminta: Televiestintä: Tietojenkäsittelypalvelu</t>
   </si>
   <si>
-    <t>I_64_66</t>
+    <t>64_66 Rahoitus- ja vakuutustoiminta</t>
   </si>
   <si>
-    <t>I_68</t>
+    <t>681+68209+683 Muu kiinteistötoiminta</t>
   </si>
   <si>
-    <t>I_68A</t>
+    <t>68201_68202 Asuntojen vuokraus ja hallinta</t>
   </si>
   <si>
-    <t>I_69_75</t>
+    <t>69_75 Ammatillinen, tieteellinen ja tekninen toiminta</t>
   </si>
   <si>
-    <t>I_77_82</t>
+    <t>77_82 Hallinto- ja tukipalvelutoiminta</t>
   </si>
   <si>
-    <t>I_84</t>
+    <t>84 Julkinen hallinto ja sosiaalivakuutus</t>
   </si>
   <si>
-    <t>I_85</t>
+    <t>85 Koulutus</t>
   </si>
   <si>
-    <t>I_86_88</t>
+    <t>86_88 Terveys- ja sosiaalipalvelut</t>
   </si>
   <si>
-    <t>I_90_96</t>
+    <t>90_96 Taiteet, viihde ja virkistys: Muu palvelutoiminta</t>
   </si>
   <si>
-    <t>I_97_98</t>
+    <t>97_98 Kotitalouspalvelut</t>
   </si>
   <si>
-    <t>Hou</t>
+    <t>P3/S14 Kotitalouksien kulutusmenot</t>
   </si>
   <si>
-    <t>Inv</t>
+    <t>P5 Pääoman bruttomuodostus</t>
   </si>
   <si>
-    <t>Gov</t>
+    <t>P3/S13 Julkisyhteisöjen kulutusmenot</t>
   </si>
   <si>
-    <t>Exp</t>
+    <t>P6K Tavaroiden ja palvelujen vienti</t>
   </si>
   <si>
     <t>SUM</t>
-  </si>
-  <si>
-    <t>C_01</t>
-  </si>
-  <si>
-    <t>C_02_03</t>
-  </si>
-  <si>
-    <t>C_05_09</t>
-  </si>
-  <si>
-    <t>C_10_12</t>
-  </si>
-  <si>
-    <t>C_13_15</t>
-  </si>
-  <si>
-    <t>C_16</t>
-  </si>
-  <si>
-    <t>C_17_18</t>
-  </si>
-  <si>
-    <t>C_19_22</t>
-  </si>
-  <si>
-    <t>C_23</t>
-  </si>
-  <si>
-    <t>C_24_25</t>
-  </si>
-  <si>
-    <t>C_26_27</t>
-  </si>
-  <si>
-    <t>C_28</t>
-  </si>
-  <si>
-    <t>C_29_30</t>
-  </si>
-  <si>
-    <t>C_31_33</t>
-  </si>
-  <si>
-    <t>C_35_39</t>
-  </si>
-  <si>
-    <t>C_41_43</t>
-  </si>
-  <si>
-    <t>C_45_47</t>
-  </si>
-  <si>
-    <t>C_49_53</t>
-  </si>
-  <si>
-    <t>C_55_56</t>
-  </si>
-  <si>
-    <t>C_58_63</t>
-  </si>
-  <si>
-    <t>C_64_66</t>
-  </si>
-  <si>
-    <t>C_68</t>
-  </si>
-  <si>
-    <t>C_68A</t>
-  </si>
-  <si>
-    <t>C_69_75</t>
-  </si>
-  <si>
-    <t>C_77_82</t>
-  </si>
-  <si>
-    <t>C_84</t>
-  </si>
-  <si>
-    <t>C_85</t>
-  </si>
-  <si>
-    <t>C_86_88</t>
-  </si>
-  <si>
-    <t>C_90_96</t>
-  </si>
-  <si>
-    <t>C_97_98</t>
   </si>
 </sst>
 </file>
@@ -708,7 +618,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>6.593448638916016</v>
@@ -818,7 +728,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.03242575749754906</v>
@@ -928,7 +838,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.05596102029085159</v>
@@ -1038,7 +948,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5.139122009277344</v>
@@ -1148,7 +1058,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.02065186202526093</v>
@@ -1258,7 +1168,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.006485660094767809</v>
@@ -1368,7 +1278,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.06823985278606415</v>
@@ -1478,7 +1388,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.20352935791016</v>
@@ -1588,7 +1498,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.06537584960460663</v>
@@ -1698,7 +1608,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.2105521559715271</v>
@@ -1808,7 +1718,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.509998083114624</v>
@@ -1918,7 +1828,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.5795125365257263</v>
@@ -2028,7 +1938,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.005574875511229038</v>
@@ -2138,7 +2048,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.0925895944237709</v>
@@ -2248,7 +2158,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.4184556603431702</v>
@@ -2358,7 +2268,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.0009578022873029113</v>
@@ -2468,7 +2378,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.1282474845647812</v>
@@ -2578,7 +2488,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.1365437507629395</v>
@@ -2688,7 +2598,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.007856274023652077</v>
@@ -2798,7 +2708,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1343338638544083</v>
@@ -2908,7 +2818,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.4516176879405975</v>
@@ -3018,7 +2928,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0001338479632977396</v>
@@ -3128,7 +3038,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -3238,7 +3148,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.1517906486988068</v>
@@ -3348,7 +3258,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>3.077826976776123</v>
@@ -3458,7 +3368,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.003158245934173465</v>
@@ -3568,7 +3478,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.00528500834479928</v>
@@ -3678,7 +3588,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0001551092864247039</v>
@@ -3788,7 +3698,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.006736051756888628</v>
@@ -3898,7 +3808,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -4241,7 +4151,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.29604530334473</v>
@@ -4351,7 +4261,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.0472741536796093</v>
@@ -4461,7 +4371,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.1268433630466461</v>
@@ -4571,7 +4481,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>7.134770393371582</v>
@@ -4681,7 +4591,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.1107895374298096</v>
@@ -4791,7 +4701,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1518250852823257</v>
@@ -4901,7 +4811,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.3216576874256134</v>
@@ -5011,7 +4921,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>16.51388931274414</v>
@@ -5121,7 +5031,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1455365270376205</v>
@@ -5231,7 +5141,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.446346640586853</v>
@@ -5341,7 +5251,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.1326507776975632</v>
@@ -5451,7 +5361,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1.076132893562317</v>
@@ -5561,7 +5471,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0182633176445961</v>
@@ -5671,7 +5581,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.1708816140890121</v>
@@ -5781,7 +5691,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.6039563417434692</v>
@@ -5891,7 +5801,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.002015854930505157</v>
@@ -6001,7 +5911,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.176634669303894</v>
@@ -6111,7 +6021,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.1881891041994095</v>
@@ -6221,7 +6131,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.01195118296891451</v>
@@ -6331,7 +6241,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.08788081258535385</v>
@@ -6441,7 +6351,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.6581158638000488</v>
@@ -6551,7 +6461,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0002098242694046348</v>
@@ -6661,7 +6571,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -6771,7 +6681,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.1860690712928772</v>
@@ -6881,7 +6791,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4.461185932159424</v>
@@ -6991,7 +6901,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.008607152849435806</v>
@@ -7101,7 +7011,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.01849626190960407</v>
@@ -7211,7 +7121,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0007139777881093323</v>
@@ -7321,7 +7231,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.008465602062642574</v>
@@ -7431,7 +7341,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -7774,7 +7684,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>5.214843273162842</v>
@@ -7884,7 +7794,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.02388028986752033</v>
@@ -7994,7 +7904,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.0687483623623848</v>
@@ -8104,7 +8014,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3.627554416656494</v>
@@ -8214,7 +8124,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0430222861468792</v>
@@ -8324,7 +8234,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1260088086128235</v>
@@ -8434,7 +8344,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.4122374057769775</v>
@@ -8544,7 +8454,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>7.980404853820801</v>
@@ -8654,7 +8564,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1273076087236404</v>
@@ -8764,7 +8674,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.2763603031635284</v>
@@ -8874,7 +8784,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.1434238255023956</v>
@@ -8984,7 +8894,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.6326736211776733</v>
@@ -9094,7 +9004,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.002625243039801717</v>
@@ -9204,7 +9114,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.08008517324924469</v>
@@ -9314,7 +9224,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.3067698180675507</v>
@@ -9424,7 +9334,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.001130738412030041</v>
@@ -9534,7 +9444,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.09085030853748322</v>
@@ -9644,7 +9554,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.1014681756496429</v>
@@ -9754,7 +9664,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.006215377245098352</v>
@@ -9864,7 +9774,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.06049583107233047</v>
@@ -9974,7 +9884,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.3322360217571259</v>
@@ -10084,7 +9994,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0001128859876189381</v>
@@ -10194,7 +10104,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -10304,7 +10214,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.07891293615102768</v>
@@ -10414,7 +10324,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>2.047169923782349</v>
@@ -10524,7 +10434,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.004759127274155617</v>
@@ -10634,7 +10544,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.01146582886576653</v>
@@ -10744,7 +10654,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0003753085620701313</v>
@@ -10854,7 +10764,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.00551638612523675</v>
@@ -10964,7 +10874,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -11307,7 +11217,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>4.417337894439697</v>
@@ -11417,7 +11327,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.02064947783946991</v>
@@ -11527,7 +11437,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.05354644730687141</v>
@@ -11637,7 +11547,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3.086465358734131</v>
@@ -11747,7 +11657,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0188474003225565</v>
@@ -11857,7 +11767,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.09235241264104843</v>
@@ -11967,7 +11877,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.5732404589653015</v>
@@ -12077,7 +11987,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>6.811029434204102</v>
@@ -12187,7 +12097,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.07493890076875687</v>
@@ -12297,7 +12207,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.2126729190349579</v>
@@ -12407,7 +12317,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.1372295916080475</v>
@@ -12517,7 +12427,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.5857437252998352</v>
@@ -12627,7 +12537,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.02203320525586605</v>
@@ -12737,7 +12647,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.07497976720333099</v>
@@ -12847,7 +12757,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.2634847462177277</v>
@@ -12957,7 +12867,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.0007446157978847623</v>
@@ -13067,7 +12977,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.0726388618350029</v>
@@ -13177,7 +13087,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.07706431299448013</v>
@@ -13287,7 +13197,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.005338563583791256</v>
@@ -13397,7 +13307,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.06097394227981567</v>
@@ -13507,7 +13417,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.2869907319545746</v>
@@ -13617,7 +13527,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>4.820506001124159e-05</v>
@@ -13727,7 +13637,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -13837,7 +13747,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.07920758426189423</v>
@@ -13947,7 +13857,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1.897180914878845</v>
@@ -14057,7 +13967,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.003371363272890449</v>
@@ -14167,7 +14077,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.008055722340941429</v>
@@ -14277,7 +14187,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0002299648767802864</v>
@@ -14387,7 +14297,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.003697906387969851</v>
@@ -14497,7 +14407,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -14840,7 +14750,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>19.86854362487793</v>
@@ -14950,7 +14860,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.08496562391519547</v>
@@ -15060,7 +14970,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.2528842985630035</v>
@@ -15170,7 +15080,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.43273639678955</v>
@@ -15280,7 +15190,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.5816792249679565</v>
@@ -15390,7 +15300,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.7494086027145386</v>
@@ -15500,7 +15410,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.2103620022535324</v>
@@ -15610,7 +15520,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>24.80304336547852</v>
@@ -15720,7 +15630,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.5036532878875732</v>
@@ -15830,7 +15740,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>3.279257297515869</v>
@@ -15940,7 +15850,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.2906452715396881</v>
@@ -16050,7 +15960,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1.816163897514343</v>
@@ -16160,7 +16070,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.213698536157608</v>
@@ -16270,7 +16180,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.4743886888027191</v>
@@ -16380,7 +16290,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>1.082114338874817</v>
@@ -16490,7 +16400,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.00385766290128231</v>
@@ -16600,7 +16510,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.3657220602035522</v>
@@ -16710,7 +16620,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.4141357839107513</v>
@@ -16820,7 +16730,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.02047806233167648</v>
@@ -16930,7 +16840,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1229643523693085</v>
@@ -17040,7 +16950,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1.184071779251099</v>
@@ -17150,7 +17060,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0005618614377453923</v>
@@ -17260,7 +17170,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -17370,7 +17280,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.2468313127756119</v>
@@ -17480,7 +17390,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>6.43909215927124</v>
@@ -17590,7 +17500,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.01614538766443729</v>
@@ -17700,7 +17610,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0321950651705265</v>
@@ -17810,7 +17720,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.001410336000844836</v>
@@ -17920,7 +17830,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.01691339537501335</v>
@@ -18030,7 +17940,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -18373,7 +18283,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>15.1474666595459</v>
@@ -18483,7 +18393,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.06804788857698441</v>
@@ -18593,7 +18503,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.1303977519273758</v>
@@ -18703,7 +18613,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.44261360168457</v>
@@ -18813,7 +18723,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.08612280339002609</v>
@@ -18923,7 +18833,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.08451034128665924</v>
@@ -19033,7 +18943,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.161563873291016</v>
@@ -19143,7 +19053,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>23.56271362304688</v>
@@ -19253,7 +19163,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.4518542289733887</v>
@@ -19363,7 +19273,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.7661914825439453</v>
@@ -19473,7 +19383,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>1.874584674835205</v>
@@ -19583,7 +19493,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>2.467214107513428</v>
@@ -19693,7 +19603,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.08269487321376801</v>
@@ -19803,7 +19713,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.2194102853536606</v>
@@ -19913,7 +19823,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.8771089315414429</v>
@@ -20023,7 +19933,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.001891467720270157</v>
@@ -20133,7 +20043,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.2000801116228104</v>
@@ -20243,7 +20153,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.2360329180955887</v>
@@ -20353,7 +20263,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0162676814943552</v>
@@ -20463,7 +20373,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1153382509946823</v>
@@ -20573,7 +20483,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.9437404870986938</v>
@@ -20683,7 +20593,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0001738933351589367</v>
@@ -20793,7 +20703,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -20903,7 +20813,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.1558311879634857</v>
@@ -21013,7 +20923,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4.450901508331299</v>
@@ -21123,7 +21033,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.006904258858412504</v>
@@ -21233,7 +21143,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.01654666289687157</v>
@@ -21343,7 +21253,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0005846910062246025</v>
@@ -21453,7 +21363,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.008389693684875965</v>
@@ -21563,7 +21473,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -21906,7 +21816,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.106011867523193</v>
@@ -22016,7 +21926,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.0302528478205204</v>
@@ -22126,7 +22036,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.05368877574801445</v>
@@ -22236,7 +22146,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4.631143093109131</v>
@@ -22346,7 +22256,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.04613571986556053</v>
@@ -22456,7 +22366,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.04136187210679054</v>
@@ -22566,7 +22476,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.02660220488905907</v>
@@ -22676,7 +22586,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.37603378295898</v>
@@ -22786,7 +22696,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.08512739092111588</v>
@@ -22896,7 +22806,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.6933535933494568</v>
@@ -23006,7 +22916,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.004385996144264936</v>
@@ -23116,7 +23026,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.3541011810302734</v>
@@ -23226,7 +23136,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.06095908954739571</v>
@@ -23336,7 +23246,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.1348162293434143</v>
@@ -23446,7 +23356,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.3680641949176788</v>
@@ -23556,7 +23466,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.00108252081554383</v>
@@ -23666,7 +23576,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.1206579059362411</v>
@@ -23776,7 +23686,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.1767302453517914</v>
@@ -23886,7 +23796,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.006771076936274767</v>
@@ -23996,7 +23906,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.07741162180900574</v>
@@ -24106,7 +24016,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.4185181558132172</v>
@@ -24216,7 +24126,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0001355083222733811</v>
@@ -24326,7 +24236,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -24436,7 +24346,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.09230364859104156</v>
@@ -24546,7 +24456,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>2.4979248046875</v>
@@ -24656,7 +24566,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.005071359686553478</v>
@@ -24766,7 +24676,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.01178405247628689</v>
@@ -24876,7 +24786,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0004052424628753215</v>
@@ -24986,7 +24896,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.005471640732139349</v>
@@ -25096,7 +25006,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -25439,7 +25349,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.81704425811768</v>
@@ -25549,7 +25459,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.06408251821994781</v>
@@ -25659,7 +25569,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.1902571618556976</v>
@@ -25769,7 +25679,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.606280326843262</v>
@@ -25879,7 +25789,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.1319690942764282</v>
@@ -25989,7 +25899,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.3124125003814697</v>
@@ -26099,7 +26009,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.7918133139610291</v>
@@ -26209,7 +26119,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>20.08766555786133</v>
@@ -26319,7 +26229,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.2984273731708527</v>
@@ -26429,7 +26339,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.554648160934448</v>
@@ -26539,7 +26449,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>3.430137872695923</v>
@@ -26649,7 +26559,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.5631334781646729</v>
@@ -26759,7 +26669,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.04558902606368065</v>
@@ -26869,7 +26779,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.2714135050773621</v>
@@ -26979,7 +26889,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.8133649230003357</v>
@@ -27089,7 +26999,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.002249056939035654</v>
@@ -27199,7 +27109,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.2234881669282913</v>
@@ -27309,7 +27219,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.2450780421495438</v>
@@ -27419,7 +27329,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.01604448258876801</v>
@@ -27529,7 +27439,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1123733520507812</v>
@@ -27639,7 +27549,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.8931971192359924</v>
@@ -27749,7 +27659,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0001803183840820566</v>
@@ -27859,7 +27769,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -27969,7 +27879,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.2583356201648712</v>
@@ -28079,7 +27989,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4.620522499084473</v>
@@ -28189,7 +28099,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.007030589040368795</v>
@@ -28299,7 +28209,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.01711662672460079</v>
@@ -28409,7 +28319,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0005517410463653505</v>
@@ -28519,7 +28429,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.009548678062856197</v>
@@ -28629,7 +28539,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -28972,7 +28882,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>2.091361522674561</v>
@@ -29082,7 +28992,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.009661606512963772</v>
@@ -29192,7 +29102,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.1227820813655853</v>
@@ -29302,7 +29212,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1.42069137096405</v>
@@ -29412,7 +29322,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.01175555028021336</v>
@@ -29522,7 +29432,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.3419354856014252</v>
@@ -29632,7 +29542,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.0924643874168396</v>
@@ -29742,7 +29652,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>1.868939876556396</v>
@@ -29852,7 +29762,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.3247956335544586</v>
@@ -29962,7 +29872,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.2186998426914215</v>
@@ -30072,7 +29982,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.5197042226791382</v>
@@ -30182,7 +30092,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.07259786128997803</v>
@@ -30292,7 +30202,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.1688474863767624</v>
@@ -30402,7 +30312,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.07458591461181641</v>
@@ -30512,7 +30422,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.1288847029209137</v>
@@ -30622,7 +30532,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.0004036597674712539</v>
@@ -30732,7 +30642,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.03550355508923531</v>
@@ -30842,7 +30752,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.03633175417780876</v>
@@ -30952,7 +30862,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.002347029047086835</v>
@@ -31062,7 +30972,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.01157542411237955</v>
@@ -31172,7 +31082,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.1346166282892227</v>
@@ -31282,7 +31192,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>4.138391886954196e-05</v>
@@ -31392,7 +31302,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -31502,7 +31412,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.03368938714265823</v>
@@ -31612,7 +31522,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.949360191822052</v>
@@ -31722,7 +31632,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.003771228482946754</v>
@@ -31832,7 +31742,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.002742939628660679</v>
@@ -31942,7 +31852,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0001476610195823014</v>
@@ -32052,7 +31962,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.003038341645151377</v>
@@ -32162,7 +32072,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -32505,7 +32415,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>3.182862997055054</v>
@@ -32615,7 +32525,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.01441488321870565</v>
@@ -32725,7 +32635,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.07543389499187469</v>
@@ -32835,7 +32745,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>2.166474580764771</v>
@@ -32945,7 +32855,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.02988560684025288</v>
@@ -33055,7 +32965,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.05859610065817833</v>
@@ -33165,7 +33075,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.040711402893066</v>
@@ -33275,7 +33185,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>2.831714391708374</v>
@@ -33385,7 +33295,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.121581606566906</v>
@@ -33495,7 +33405,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.649144768714905</v>
@@ -33605,7 +33515,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.00352066196501255</v>
@@ -33715,7 +33625,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.08021991699934006</v>
@@ -33825,7 +33735,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.08252384513616562</v>
@@ -33935,7 +33845,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.09112924337387085</v>
@@ -34045,7 +33955,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.1782121062278748</v>
@@ -34155,7 +34065,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.0005956520908512175</v>
@@ -34265,7 +34175,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.0528993122279644</v>
@@ -34375,7 +34285,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.07068069279193878</v>
@@ -34485,7 +34395,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.004094969946891069</v>
@@ -34595,7 +34505,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.02247060462832451</v>
@@ -34705,7 +34615,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.1996962577104568</v>
@@ -34815,7 +34725,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>4.30601867265068e-05</v>
@@ -34925,7 +34835,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -35035,7 +34945,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.05250134691596031</v>
@@ -35145,7 +35055,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1.485600471496582</v>
@@ -35255,7 +35165,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.00354831712320447</v>
@@ -35365,7 +35275,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.005556972697377205</v>
@@ -35475,7 +35385,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.000187285098945722</v>
@@ -35585,7 +35495,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.003203717758879066</v>
@@ -35695,7 +35605,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -36038,7 +35948,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1.102658033370972</v>
@@ -36148,7 +36058,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.005025407299399376</v>
@@ -36258,7 +36168,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.01097551081329584</v>
@@ -36368,7 +36278,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.7628737688064575</v>
@@ -36478,7 +36388,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.003392004407942295</v>
@@ -36588,7 +36498,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.006962851155549288</v>
@@ -36698,7 +36608,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.006259530782699585</v>
@@ -36808,7 +36718,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>1.805151224136353</v>
@@ -36918,7 +36828,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.006835832260549068</v>
@@ -37028,7 +36938,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.03594618663191795</v>
@@ -37138,7 +37048,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.01538373250514269</v>
@@ -37248,7 +37158,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.09074685722589493</v>
@@ -37358,7 +37268,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0001468980044592172</v>
@@ -37468,7 +37378,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.01862103492021561</v>
@@ -37578,7 +37488,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.06669782102108002</v>
@@ -37688,7 +37598,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.0003628399281296879</v>
@@ -37798,7 +37708,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.02475384622812271</v>
@@ -37908,7 +37818,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.1286400854587555</v>
@@ -38018,7 +37928,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.001296166214160621</v>
@@ -38128,7 +38038,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.02834273874759674</v>
@@ -38238,7 +38148,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.07006476074457169</v>
@@ -38348,7 +38258,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>4.174108835286461e-05</v>
@@ -38458,7 +38368,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -38568,7 +38478,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.01732176914811134</v>
@@ -38678,7 +38588,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.3482503890991211</v>
@@ -38788,7 +38698,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.001266340725123882</v>
@@ -38898,7 +38808,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.002005205489695072</v>
@@ -39008,7 +38918,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>7.91328857303597e-05</v>
@@ -39118,7 +39028,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.002148522064089775</v>
@@ -39228,7 +39138,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -39571,7 +39481,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>17.78877830505371</v>
@@ -39681,7 +39591,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.08260008692741394</v>
@@ -39791,7 +39701,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.1610661596059799</v>
@@ -39901,7 +39811,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.34578704833984</v>
@@ -40011,7 +39921,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.05236146226525307</v>
@@ -40121,7 +40031,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.03071404807269573</v>
@@ -40231,7 +40141,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.07868926227092743</v>
@@ -40341,7 +40251,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>30.74210739135742</v>
@@ -40451,7 +40361,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.3364004790782928</v>
@@ -40561,7 +40471,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.6122696399688721</v>
@@ -40671,7 +40581,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.7801614999771118</v>
@@ -40781,7 +40691,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1.60683274269104</v>
@@ -40891,7 +40801,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.164246067404747</v>
@@ -41001,7 +40911,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.2648798227310181</v>
@@ -41111,7 +41021,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>1.044317483901978</v>
@@ -41221,7 +41131,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.002568943193182349</v>
@@ -41331,7 +41241,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.306020975112915</v>
@@ -41441,7 +41351,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.3270697891712189</v>
@@ -41551,7 +41461,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.02106198668479919</v>
@@ -41661,7 +41571,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1401794254779816</v>
@@ -41771,7 +41681,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1.147913455963135</v>
@@ -41881,7 +41791,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0001987517171073705</v>
@@ -41991,7 +41901,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -42101,7 +42011,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.3207269012928009</v>
@@ -42211,7 +42121,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>7.646284580230713</v>
@@ -42321,7 +42231,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.009578251279890537</v>
@@ -42431,7 +42341,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.02305225282907486</v>
@@ -42541,7 +42451,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.000817358260974288</v>
@@ -42651,7 +42561,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.01231193076819181</v>
@@ -42761,7 +42671,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -43104,7 +43014,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.844245910644531</v>
@@ -43214,7 +43124,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.04057767987251282</v>
@@ -43324,7 +43234,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.08990103751420975</v>
@@ -43434,7 +43344,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>6.276248455047607</v>
@@ -43544,7 +43454,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.06310003250837326</v>
@@ -43654,7 +43564,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.05074732750654221</v>
@@ -43764,7 +43674,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.4843620657920837</v>
@@ -43874,7 +43784,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.59752750396729</v>
@@ -43984,7 +43894,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1087920218706131</v>
@@ -44094,7 +44004,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.7039269804954529</v>
@@ -44204,7 +44114,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.122282549738884</v>
@@ -44314,7 +44224,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1.243304967880249</v>
@@ -44424,7 +44334,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0256569366902113</v>
@@ -44534,7 +44444,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.1460933834314346</v>
@@ -44644,7 +44554,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.5172991156578064</v>
@@ -44754,7 +44664,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.001362594775855541</v>
@@ -44864,7 +44774,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.1373779326677322</v>
@@ -44974,7 +44884,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.1777740567922592</v>
@@ -45084,7 +44994,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.00995939876884222</v>
@@ -45194,7 +45104,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.0599236860871315</v>
@@ -45304,7 +45214,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.5635779500007629</v>
@@ -45414,7 +45324,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0002605312911327928</v>
@@ -45524,7 +45434,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -45634,7 +45544,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.1012331321835518</v>
@@ -45744,7 +45654,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>3.542085886001587</v>
@@ -45854,7 +45764,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.007767320610582829</v>
@@ -45964,7 +45874,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.01163264270871878</v>
@@ -46074,7 +45984,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.000500611262395978</v>
@@ -46184,7 +46094,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.006574637722223997</v>
@@ -46294,7 +46204,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -46637,7 +46547,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>4.432584762573242</v>
@@ -46747,7 +46657,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.02077836357057095</v>
@@ -46857,7 +46767,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.04575683549046516</v>
@@ -46967,7 +46877,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3.332273960113525</v>
@@ -47077,7 +46987,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.03733121231198311</v>
@@ -47187,7 +47097,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.07253135740756989</v>
@@ -47297,7 +47207,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.2790590226650238</v>
@@ -47407,7 +47317,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>6.360541820526123</v>
@@ -47517,7 +47427,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.3222898840904236</v>
@@ -47627,7 +47537,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.7488161325454712</v>
@@ -47737,7 +47647,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.09305116534233093</v>
@@ -47847,7 +47757,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.3939277827739716</v>
@@ -47957,7 +47867,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.05709536746144295</v>
@@ -48067,7 +47977,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.08979910612106323</v>
@@ -48177,7 +48087,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.2624646425247192</v>
@@ -48287,7 +48197,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.0007861374178901315</v>
@@ -48397,7 +48307,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.08627314865589142</v>
@@ -48507,7 +48417,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.08284949511289597</v>
@@ -48617,7 +48527,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.005261749494820833</v>
@@ -48727,7 +48637,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.04112382978200912</v>
@@ -48837,7 +48747,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.288519561290741</v>
@@ -48947,7 +48857,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>7.57597663323395e-05</v>
@@ -49057,7 +48967,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -49167,7 +49077,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.08381898701190948</v>
@@ -49277,7 +49187,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1.948742389678955</v>
@@ -49387,7 +49297,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.004864905960857868</v>
@@ -49497,7 +49407,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.005817609373480082</v>
@@ -49607,7 +49517,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0002333167503820732</v>
@@ -49717,7 +49627,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.004658833146095276</v>
@@ -49827,7 +49737,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -50170,7 +50080,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.017680168151855</v>
@@ -50280,7 +50190,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.03767551854252815</v>
@@ -50390,7 +50300,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.0768144503235817</v>
@@ -50500,7 +50410,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5.628321170806885</v>
@@ -50610,7 +50520,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.08344679325819016</v>
@@ -50720,7 +50630,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.03703529387712479</v>
@@ -50830,7 +50740,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.4233601093292236</v>
@@ -50940,7 +50850,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.36824512481689</v>
@@ -51050,7 +50960,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1191111207008362</v>
@@ -51160,7 +51070,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.3275420069694519</v>
@@ -51270,7 +51180,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.5301101207733154</v>
@@ -51380,7 +51290,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.9314725995063782</v>
@@ -51490,7 +51400,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.02961822040379047</v>
@@ -51600,7 +51510,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.1407919228076935</v>
@@ -51710,7 +51620,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.4751889109611511</v>
@@ -51820,7 +51730,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.001094122766517103</v>
@@ -51930,7 +51840,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.1307934373617172</v>
@@ -52040,7 +51950,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.1387485563755035</v>
@@ -52150,7 +52060,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0097086476162076</v>
@@ -52260,7 +52170,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1075832769274712</v>
@@ -52370,7 +52280,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.5232534408569336</v>
@@ -52480,7 +52390,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0001401099580107257</v>
@@ -52590,7 +52500,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -52700,7 +52610,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.1399175524711609</v>
@@ -52810,7 +52720,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>3.35515308380127</v>
@@ -52920,7 +52830,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.003951895982027054</v>
@@ -53030,7 +52940,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0108846090734005</v>
@@ -53140,7 +53050,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0003524193016346544</v>
@@ -53250,7 +53160,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.005571507848799229</v>
@@ -53360,7 +53270,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -53703,7 +53613,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>3.654513359069824</v>
@@ -53813,7 +53723,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.01721529103815556</v>
@@ -53923,7 +53833,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.01797324232757092</v>
@@ -54033,7 +53943,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>2.666451215744019</v>
@@ -54143,7 +54053,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0668516606092453</v>
@@ -54253,7 +54163,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1191388741135597</v>
@@ -54363,7 +54273,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.133768692612648</v>
@@ -54473,7 +54383,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>5.947865962982178</v>
@@ -54583,7 +54493,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.08061077445745468</v>
@@ -54693,7 +54603,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.2094301581382751</v>
@@ -54803,7 +54713,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.1102290153503418</v>
@@ -54913,7 +54823,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.3996193706989288</v>
@@ -55023,7 +54933,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.01023094356060028</v>
@@ -55133,7 +55043,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.08531171083450317</v>
@@ -55243,7 +55153,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.225190058350563</v>
@@ -55353,7 +55263,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.0005216376739554107</v>
@@ -55463,7 +55373,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.06714092195034027</v>
@@ -55573,7 +55483,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.06433799862861633</v>
@@ -55683,7 +55593,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.004450150765478611</v>
@@ -55793,7 +55703,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.03322438150644302</v>
@@ -55903,7 +55813,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.2402703762054443</v>
@@ -56013,7 +55923,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>6.924600893398747e-05</v>
@@ -56123,7 +56033,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -56233,7 +56143,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.04627098888158798</v>
@@ -56343,7 +56253,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1.694766163825989</v>
@@ -56453,7 +56363,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.002396180760115385</v>
@@ -56563,7 +56473,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.005760942120105028</v>
@@ -56673,7 +56583,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0002162379096262157</v>
@@ -56783,7 +56693,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.002584564033895731</v>
@@ -56893,7 +56803,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -57236,7 +57146,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>3.157732725143433</v>
@@ -57346,7 +57256,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.01438033394515514</v>
@@ -57456,7 +57366,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.03235167264938354</v>
@@ -57566,7 +57476,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>2.205884695053101</v>
@@ -57676,7 +57586,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.01172112300992012</v>
@@ -57786,7 +57696,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.01615820825099945</v>
@@ -57896,7 +57806,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.3773683309555054</v>
@@ -58006,7 +57916,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>5.185765266418457</v>
@@ -58116,7 +58026,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.05231449753046036</v>
@@ -58226,7 +58136,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.1061227917671204</v>
@@ -58336,7 +58246,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.01147021912038326</v>
@@ -58446,7 +58356,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.3071489036083221</v>
@@ -58556,7 +58466,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.002592607866972685</v>
@@ -58666,7 +58576,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.06340538710355759</v>
@@ -58776,7 +58686,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.1815444678068161</v>
@@ -58886,7 +58796,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.0005352877196855843</v>
@@ -58996,7 +58906,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.04554216936230659</v>
@@ -59106,7 +59016,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.08755960315465927</v>
@@ -59216,7 +59126,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.003424176713451743</v>
@@ -59326,7 +59236,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1070050373673439</v>
@@ -59436,7 +59346,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.1986484825611115</v>
@@ -59546,7 +59456,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>6.327474693534896e-05</v>
@@ -59656,7 +59566,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -59766,7 +59676,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.04158970713615417</v>
@@ -59876,7 +59786,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1.360106825828552</v>
@@ -59986,7 +59896,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.002900756662711501</v>
@@ -60096,7 +60006,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.003304535523056984</v>
@@ -60206,7 +60116,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0001520381483715028</v>
@@ -60316,7 +60226,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.002353718737140298</v>
@@ -60426,7 +60336,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -60769,7 +60679,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>2.486100196838379</v>
@@ -60879,7 +60789,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.0114957308396697</v>
@@ -60989,7 +60899,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.02862199023365974</v>
@@ -61099,7 +61009,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1.726659536361694</v>
@@ -61209,7 +61119,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.005464159417897463</v>
@@ -61319,7 +61229,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.04090121760964394</v>
@@ -61429,7 +61339,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.8183746933937073</v>
@@ -61539,7 +61449,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>3.423226833343506</v>
@@ -61649,7 +61559,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.08936116844415665</v>
@@ -61759,7 +61669,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.1242464929819107</v>
@@ -61869,7 +61779,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.01624210178852081</v>
@@ -61979,7 +61889,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.214453861117363</v>
@@ -62089,7 +61999,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.001231868169270456</v>
@@ -62199,7 +62109,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.05380178987979889</v>
@@ -62309,7 +62219,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.1447733193635941</v>
@@ -62419,7 +62329,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.0004611673066392541</v>
@@ -62529,7 +62439,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.04067914187908173</v>
@@ -62639,7 +62549,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.05669346824288368</v>
@@ -62749,7 +62659,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.003048718208447099</v>
@@ -62859,7 +62769,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.02171370387077332</v>
@@ -62969,7 +62879,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.1598942130804062</v>
@@ -63079,7 +62989,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>3.766500230995007e-05</v>
@@ -63189,7 +63099,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -63299,7 +63209,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.04412829130887985</v>
@@ -63409,7 +63319,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1.135821342468262</v>
@@ -63519,7 +63429,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.002636691788211465</v>
@@ -63629,7 +63539,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.004046750254929066</v>
@@ -63739,7 +63649,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0001341828610748053</v>
@@ -63849,7 +63759,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.00206293142400682</v>
@@ -63959,7 +63869,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -64302,7 +64212,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>6.326465129852295</v>
@@ -64412,7 +64322,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.02854514122009277</v>
@@ -64522,7 +64432,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.05352229624986649</v>
@@ -64632,7 +64542,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4.187172412872314</v>
@@ -64742,7 +64652,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.06845401972532272</v>
@@ -64852,7 +64762,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.2072650045156479</v>
@@ -64962,7 +64872,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.08251636475324631</v>
@@ -65072,7 +64982,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.753541946411133</v>
@@ -65182,7 +65092,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.2291965633630753</v>
@@ -65292,7 +65202,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.2469351440668106</v>
@@ -65402,7 +65312,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.1428806781768799</v>
@@ -65512,7 +65422,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.522000789642334</v>
@@ -65622,7 +65532,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.01034700777381659</v>
@@ -65732,7 +65642,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.1286053508520126</v>
@@ -65842,7 +65752,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.3719475865364075</v>
@@ -65952,7 +65862,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.001112741185352206</v>
@@ -66062,7 +65972,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.1150080412626266</v>
@@ -66172,7 +66082,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.1196618527173996</v>
@@ -66282,7 +66192,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.007586115039885044</v>
@@ -66392,7 +66302,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.04346174374222755</v>
@@ -66502,7 +66412,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.3973884582519531</v>
@@ -66612,7 +66522,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0001006698512355797</v>
@@ -66722,7 +66632,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -66832,7 +66742,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.1170674338936806</v>
@@ -66942,7 +66852,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>2.624783039093018</v>
@@ -67052,7 +66962,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.005806158296763897</v>
@@ -67162,7 +67072,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.01092294231057167</v>
@@ -67272,7 +67182,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.00049549899995327</v>
@@ -67382,7 +67292,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.006211386993527412</v>
@@ -67492,7 +67402,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -67896,13 +67806,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEF6A168-7908-4662-ACAD-C07DB1DBB527}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B64A3D-31BD-421D-B3A3-3F38C1984051}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83ADBA1B-D659-43C6-857D-2AA3E17B6F4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45B106C7-93C8-4374-A297-D3EC67B8E29B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34139BE0-B671-485A-8583-94A7DB6D977B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54AAA652-1C8E-42E5-A428-99F497D239DF}"/>
 </file>
--- a/outdata/io_imp2014.xlsx
+++ b/outdata/io_imp2014.xlsx
@@ -1151,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>582.7822678535885</v>
+        <v>582.7822678535656</v>
       </c>
       <c r="AG6" s="1">
         <v>2.289756116559704</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.6656702249321305</v>
+        <v>0.6656702249314862</v>
       </c>
       <c r="AI6" s="1">
-        <v>53.43773864211187</v>
+        <v>53.43773864205159</v>
       </c>
       <c r="AJ6" s="1">
-        <v>793.1977061825769</v>
+        <v>793.1977061824931</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1261,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.852667312192011</v>
+        <v>1.85266731210029</v>
       </c>
       <c r="AG7" s="1">
         <v>0.2284193940685394</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.04363730699095363</v>
+        <v>0.04363730698837678</v>
       </c>
       <c r="AI7" s="1">
-        <v>56.94211631205989</v>
+        <v>56.94211631181879</v>
       </c>
       <c r="AJ7" s="1">
-        <v>160.5523085215284</v>
+        <v>160.552308521193</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1371,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>22.03158826862155</v>
+        <v>22.03158826843811</v>
       </c>
       <c r="AG8" s="1">
         <v>2.074972367963798</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.8705262137425156</v>
+        <v>0.8705262137373619</v>
       </c>
       <c r="AI8" s="1">
-        <v>199.7452081962703</v>
+        <v>199.7452081957881</v>
       </c>
       <c r="AJ8" s="1">
-        <v>443.1896309413021</v>
+        <v>443.1896309406313</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1481,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>883.5095760492761</v>
+        <v>883.509576037536</v>
       </c>
       <c r="AG9" s="1">
         <v>28.85885934842992</v>
       </c>
       <c r="AH9" s="1">
-        <v>175.2686698716432</v>
+        <v>175.2686698713133</v>
       </c>
       <c r="AI9" s="1">
-        <v>1479.750758578714</v>
+        <v>1479.750758547853</v>
       </c>
       <c r="AJ9" s="1">
-        <v>6688.682398412082</v>
+        <v>6688.68239836915</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1576,7 +1576,7 @@
         <v>1.093716144561768</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.4471454322338104</v>
+        <v>0.447145402431488</v>
       </c>
       <c r="AB10" s="1">
         <v>0.1451253741979599</v>
@@ -1591,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>25.7453355112173</v>
+        <v>25.74533550828225</v>
       </c>
       <c r="AG10" s="1">
         <v>3.606605682692295</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.5768727899661571</v>
+        <v>0.5768727898836978</v>
       </c>
       <c r="AI10" s="1">
-        <v>48.9455147776389</v>
+        <v>48.94551476992352</v>
       </c>
       <c r="AJ10" s="1">
-        <v>453.592885519531</v>
+        <v>453.5928854789958</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1701,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>49.84336972868333</v>
+        <v>49.8433697272158</v>
       </c>
       <c r="AG11" s="1">
         <v>50.29598825982634</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.8544347238961266</v>
+        <v>0.8544347238548969</v>
       </c>
       <c r="AI11" s="1">
-        <v>587.4407615603784</v>
+        <v>587.4407615565207</v>
       </c>
       <c r="AJ11" s="1">
-        <v>1340.428110388561</v>
+        <v>1340.428110383194</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1811,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>545.4793214418253</v>
+        <v>545.4793214359552</v>
       </c>
       <c r="AG12" s="1">
         <v>403.1786419756054</v>
       </c>
       <c r="AH12" s="1">
-        <v>9.701697440289692</v>
+        <v>9.701697440124775</v>
       </c>
       <c r="AI12" s="1">
-        <v>1039.354127758313</v>
+        <v>1039.354127742882</v>
       </c>
       <c r="AJ12" s="1">
-        <v>3656.836516226203</v>
+        <v>3656.836516204738</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -1921,19 +1921,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>342.6258525045699</v>
+        <v>342.6258524928297</v>
       </c>
       <c r="AG13" s="1">
         <v>518.9296092634268</v>
       </c>
       <c r="AH13" s="1">
-        <v>1.703648485380545</v>
+        <v>1.703648485050707</v>
       </c>
       <c r="AI13" s="1">
-        <v>995.6870931934544</v>
+        <v>995.687093162593</v>
       </c>
       <c r="AJ13" s="1">
-        <v>2578.83978441998</v>
+        <v>2578.839784377049</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -2141,19 +2141,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>195.2965016921443</v>
+        <v>195.2965016862742</v>
       </c>
       <c r="AG15" s="1">
         <v>34.65419567529242</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.3268254085935459</v>
+        <v>0.3268254084286273</v>
       </c>
       <c r="AI15" s="1">
-        <v>64.47914682998677</v>
+        <v>64.47914681455603</v>
       </c>
       <c r="AJ15" s="1">
-        <v>439.1100495857468</v>
+        <v>439.110049564281</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -2491,7 +2491,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.149905189871788</v>
+        <v>0.1499052047729492</v>
       </c>
       <c r="C19" s="1">
         <v>0.2187964767217636</v>
@@ -2533,7 +2533,7 @@
         <v>1.468409776687622</v>
       </c>
       <c r="P19" s="1">
-        <v>3.060249805450439</v>
+        <v>3.060250043869019</v>
       </c>
       <c r="Q19" s="1">
         <v>10.3631591796875</v>
@@ -2581,19 +2581,19 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>105.4964009642892</v>
+        <v>105.4964014095016</v>
       </c>
       <c r="AG19" s="1">
-        <v>3.884797691421386</v>
+        <v>3.884797965363214</v>
       </c>
       <c r="AH19" s="1">
-        <v>3.279540860768711</v>
+        <v>3.27954089426657</v>
       </c>
       <c r="AI19" s="1">
-        <v>267.3083689517705</v>
+        <v>267.3083692703532</v>
       </c>
       <c r="AJ19" s="1">
-        <v>1134.627419850186</v>
+        <v>1134.62742117474</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -3921,7 +3921,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>32.71224629197968</v>
+        <v>32.71224630688084</v>
       </c>
       <c r="C32" s="1">
         <v>8.863358448157669</v>
@@ -3963,7 +3963,7 @@
         <v>131.9751782279491</v>
       </c>
       <c r="P32" s="1">
-        <v>462.2772651128471</v>
+        <v>462.2772653512657</v>
       </c>
       <c r="Q32" s="1">
         <v>1035.595687396824</v>
@@ -3996,7 +3996,7 @@
         <v>342.1059705913067</v>
       </c>
       <c r="AA32" s="1">
-        <v>319.3070717044175</v>
+        <v>319.3070716746151</v>
       </c>
       <c r="AB32" s="1">
         <v>105.3011953448877</v>
@@ -4011,19 +4011,19 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>4800.85228963425</v>
+        <v>4800.852290039541</v>
       </c>
       <c r="AG32" s="1">
-        <v>1886.974601175159</v>
+        <v>1886.9746014491</v>
       </c>
       <c r="AH32" s="1">
-        <v>283.767909423012</v>
+        <v>283.7679094553883</v>
       </c>
       <c r="AI32" s="1">
-        <v>5925.446672021205</v>
+        <v>5925.446672234847</v>
       </c>
       <c r="AJ32" s="1">
-        <v>28858.42207333131</v>
+        <v>28858.42207448008</v>
       </c>
     </row>
   </sheetData>
@@ -4574,19 +4574,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>116.8471675120295</v>
+        <v>116.8471675112729</v>
       </c>
       <c r="AG5" s="1">
         <v>0.8739496198346091</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.3500249878393689</v>
+        <v>0.3500249878136739</v>
       </c>
       <c r="AI5" s="1">
-        <v>3.957724681631392</v>
+        <v>3.957724680767454</v>
       </c>
       <c r="AJ5" s="1">
-        <v>178.1706015094354</v>
+        <v>178.1706015077891</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -4684,19 +4684,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>83.44545300605863</v>
+        <v>83.44545300603498</v>
       </c>
       <c r="AG6" s="1">
         <v>0.393225305920734</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.2623432849889414</v>
+        <v>0.2623432849881384</v>
       </c>
       <c r="AI6" s="1">
-        <v>3.853557238021575</v>
+        <v>3.853557237994577</v>
       </c>
       <c r="AJ6" s="1">
-        <v>112.5493392994942</v>
+        <v>112.5493392994428</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -4794,19 +4794,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.24101816585316</v>
+        <v>2.241018165474857</v>
       </c>
       <c r="AG7" s="1">
         <v>0.6225315899866594</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.393278511299426</v>
+        <v>0.3932785112865785</v>
       </c>
       <c r="AI7" s="1">
-        <v>4.65008173684566</v>
+        <v>4.650081736413691</v>
       </c>
       <c r="AJ7" s="1">
-        <v>32.50975104224179</v>
+        <v>32.50975104141867</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -4904,19 +4904,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.610182856679432</v>
+        <v>4.610182856632145</v>
       </c>
       <c r="AG8" s="1">
         <v>0.7580356610462609</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.5285158795360957</v>
+        <v>0.5285158795344896</v>
       </c>
       <c r="AI8" s="1">
-        <v>13.10870906178962</v>
+        <v>13.10870906173563</v>
       </c>
       <c r="AJ8" s="1">
-        <v>38.25446473215775</v>
+        <v>38.25446473205486</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -5014,19 +5014,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>96.07666024348867</v>
+        <v>96.07666024273207</v>
       </c>
       <c r="AG9" s="1">
         <v>1.429112728860183</v>
       </c>
       <c r="AH9" s="1">
-        <v>25.24604877903633</v>
+        <v>25.24604877901063</v>
       </c>
       <c r="AI9" s="1">
-        <v>74.23081348539256</v>
+        <v>74.23081348452862</v>
       </c>
       <c r="AJ9" s="1">
-        <v>408.0986369023699</v>
+        <v>408.0986369007237</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -5124,19 +5124,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.215972752648552</v>
+        <v>3.215972751891948</v>
       </c>
       <c r="AG10" s="1">
         <v>0.3919387981665199</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.2240617222266312</v>
+        <v>0.2240617222009362</v>
       </c>
       <c r="AI10" s="1">
-        <v>2.759663691861937</v>
+        <v>2.759663690997998</v>
       </c>
       <c r="AJ10" s="1">
-        <v>31.66431033224003</v>
+        <v>31.66431033059379</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -5344,19 +5344,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>30.33327561861266</v>
+        <v>30.33327561842351</v>
       </c>
       <c r="AG12" s="1">
         <v>18.24100659157113</v>
       </c>
       <c r="AH12" s="1">
-        <v>0.4376295290049944</v>
+        <v>0.4376295289985707</v>
       </c>
       <c r="AI12" s="1">
-        <v>26.08222937450961</v>
+        <v>26.08222937429363</v>
       </c>
       <c r="AJ12" s="1">
-        <v>111.5314426097422</v>
+        <v>111.5314426093306</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -5454,19 +5454,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>66.16247599021582</v>
+        <v>66.16247598416297</v>
       </c>
       <c r="AG13" s="1">
         <v>73.85173996543431</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.8864470902706655</v>
+        <v>0.8864470900651055</v>
       </c>
       <c r="AI13" s="1">
-        <v>79.17824286875346</v>
+        <v>79.17824286184192</v>
       </c>
       <c r="AJ13" s="1">
-        <v>343.8379039585094</v>
+        <v>343.8379039453395</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -5564,19 +5564,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>55.37767578001318</v>
+        <v>55.37767577982403</v>
       </c>
       <c r="AG14" s="1">
         <v>26.9488648684337</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.0412977215933501</v>
+        <v>0.04129772158692635</v>
       </c>
       <c r="AI14" s="1">
-        <v>14.19851422376668</v>
+        <v>14.1985142235507</v>
       </c>
       <c r="AJ14" s="1">
-        <v>115.1925531957311</v>
+        <v>115.1925531953196</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -6024,7 +6024,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.1979577839374542</v>
+        <v>0.1979578137397766</v>
       </c>
       <c r="C19" s="1">
         <v>0.3825872838497162</v>
@@ -6033,31 +6033,31 @@
         <v>0.5840457677841187</v>
       </c>
       <c r="E19" s="1">
-        <v>1.539233207702637</v>
+        <v>1.539233326911926</v>
       </c>
       <c r="F19" s="1">
-        <v>0.247285321354866</v>
+        <v>0.2472853362560272</v>
       </c>
       <c r="G19" s="1">
-        <v>2.821035385131836</v>
+        <v>2.821035623550415</v>
       </c>
       <c r="H19" s="1">
         <v>2.463348627090454</v>
       </c>
       <c r="I19" s="1">
-        <v>0.8683674335479736</v>
+        <v>0.8683674931526184</v>
       </c>
       <c r="J19" s="1">
-        <v>0.5509946346282959</v>
+        <v>0.5509946942329407</v>
       </c>
       <c r="K19" s="1">
-        <v>0.7674521803855896</v>
+        <v>0.7674522399902344</v>
       </c>
       <c r="L19" s="1">
-        <v>0.2190214842557907</v>
+        <v>0.2190214991569519</v>
       </c>
       <c r="M19" s="1">
-        <v>1.733569741249084</v>
+        <v>1.733569860458374</v>
       </c>
       <c r="N19" s="1">
         <v>0.07284081727266312</v>
@@ -6066,67 +6066,67 @@
         <v>0.1904319226741791</v>
       </c>
       <c r="P19" s="1">
-        <v>0.3353678584098816</v>
+        <v>0.335367888212204</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.05395495891571</v>
+        <v>1.053955078125</v>
       </c>
       <c r="R19" s="1">
-        <v>10.97724151611328</v>
+        <v>10.9772424697876</v>
       </c>
       <c r="S19" s="1">
-        <v>9.55943489074707</v>
+        <v>9.559435844421387</v>
       </c>
       <c r="T19" s="1">
         <v>0.3294916450977325</v>
       </c>
       <c r="U19" s="1">
-        <v>0.7377548217773438</v>
+        <v>0.7377548813819885</v>
       </c>
       <c r="V19" s="1">
-        <v>0.8129135370254517</v>
+        <v>0.8129135966300964</v>
       </c>
       <c r="W19" s="1">
-        <v>0.3265495598316193</v>
+        <v>0.3265495896339417</v>
       </c>
       <c r="X19" s="1">
         <v>0.05539293587207794</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.8830316662788391</v>
+        <v>0.8830317258834839</v>
       </c>
       <c r="Z19" s="1">
-        <v>2.032208204269409</v>
+        <v>2.032208442687988</v>
       </c>
       <c r="AA19" s="1">
         <v>4.460846900939941</v>
       </c>
       <c r="AB19" s="1">
-        <v>1.900756597518921</v>
+        <v>1.90075671672821</v>
       </c>
       <c r="AC19" s="1">
-        <v>3.792770385742188</v>
+        <v>3.792770624160767</v>
       </c>
       <c r="AD19" s="1">
-        <v>1.745071649551392</v>
+        <v>1.745071768760681</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>13.27749572888535</v>
+        <v>13.27749652064411</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.2436858653705283</v>
+        <v>0.2436858655048566</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.5070135112869095</v>
+        <v>0.5070135376118511</v>
       </c>
       <c r="AI19" s="1">
-        <v>14.80085957063074</v>
+        <v>14.80086046430093</v>
       </c>
       <c r="AJ19" s="1">
-        <v>80.47001339512904</v>
+        <v>80.47001880250524</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -6904,7 +6904,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.009767481125891209</v>
+        <v>0.009767482057213783</v>
       </c>
       <c r="C27" s="1">
         <v>0.01726049743592739</v>
@@ -6955,16 +6955,16 @@
         <v>0.7716027498245239</v>
       </c>
       <c r="S27" s="1">
-        <v>0.2245732098817825</v>
+        <v>0.2245731949806213</v>
       </c>
       <c r="T27" s="1">
         <v>0.1086983159184456</v>
       </c>
       <c r="U27" s="1">
-        <v>0.2051610350608826</v>
+        <v>0.2051610499620438</v>
       </c>
       <c r="V27" s="1">
-        <v>0.1200287863612175</v>
+        <v>0.1200287938117981</v>
       </c>
       <c r="W27" s="1">
         <v>0.08045551925897598</v>
@@ -6988,25 +6988,25 @@
         <v>0.1820361316204071</v>
       </c>
       <c r="AD27" s="1">
-        <v>0.1093099862337112</v>
+        <v>0.1093099936842918</v>
       </c>
       <c r="AE27" s="1">
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>0.6681414235199414</v>
+        <v>0.668141461069664</v>
       </c>
       <c r="AG27" s="1">
-        <v>1.304419624411565</v>
+        <v>1.304419640495368</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.3880119414785675</v>
+        <v>0.3880119438486688</v>
       </c>
       <c r="AI27" s="1">
-        <v>0.8733024625861253</v>
+        <v>0.8733024643413706</v>
       </c>
       <c r="AJ27" s="1">
-        <v>7.970086611262731</v>
+        <v>7.970086684854087</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -7454,7 +7454,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>45.64489422013867</v>
+        <v>45.64489425087231</v>
       </c>
       <c r="C32" s="1">
         <v>15.50024377829686</v>
@@ -7463,31 +7463,31 @@
         <v>25.77703293148079</v>
       </c>
       <c r="E32" s="1">
-        <v>85.73641425184906</v>
+        <v>85.73641437105834</v>
       </c>
       <c r="F32" s="1">
-        <v>19.93120185344014</v>
+        <v>19.9312018683413</v>
       </c>
       <c r="G32" s="1">
-        <v>38.40841043205</v>
+        <v>38.40841067046858</v>
       </c>
       <c r="H32" s="1">
         <v>31.47733219736256</v>
       </c>
       <c r="I32" s="1">
-        <v>172.2105768252914</v>
+        <v>172.210576884896</v>
       </c>
       <c r="J32" s="1">
-        <v>14.11822571203811</v>
+        <v>14.11822577164276</v>
       </c>
       <c r="K32" s="1">
-        <v>50.66270651759623</v>
+        <v>50.66270657720088</v>
       </c>
       <c r="L32" s="1">
-        <v>13.86499956878833</v>
+        <v>13.8649995836895</v>
       </c>
       <c r="M32" s="1">
-        <v>105.5505024447775</v>
+        <v>105.5505025639868</v>
       </c>
       <c r="N32" s="1">
         <v>13.51873506570701</v>
@@ -7496,67 +7496,67 @@
         <v>17.02555268987999</v>
       </c>
       <c r="P32" s="1">
-        <v>50.99007818801329</v>
+        <v>50.99007821781561</v>
       </c>
       <c r="Q32" s="1">
-        <v>105.030053623952</v>
+        <v>105.0300537431613</v>
       </c>
       <c r="R32" s="1">
-        <v>67.97308779135346</v>
+        <v>67.97308874502778</v>
       </c>
       <c r="S32" s="1">
-        <v>39.87482139887288</v>
+        <v>39.87482233764604</v>
       </c>
       <c r="T32" s="1">
         <v>16.27229167346377</v>
       </c>
       <c r="U32" s="1">
-        <v>22.22687451168895</v>
+        <v>22.22687458619475</v>
       </c>
       <c r="V32" s="1">
-        <v>16.72184552927501</v>
+        <v>16.72184559633024</v>
       </c>
       <c r="W32" s="1">
-        <v>16.64764354366343</v>
+        <v>16.64764357346576</v>
       </c>
       <c r="X32" s="1">
         <v>15.54665093054064</v>
       </c>
       <c r="Y32" s="1">
-        <v>24.84747677482665</v>
+        <v>24.84747683443129</v>
       </c>
       <c r="Z32" s="1">
-        <v>18.0395137341693</v>
+        <v>18.03951397258788</v>
       </c>
       <c r="AA32" s="1">
         <v>39.88037293031812</v>
       </c>
       <c r="AB32" s="1">
-        <v>11.81768617546186</v>
+        <v>11.81768629467115</v>
       </c>
       <c r="AC32" s="1">
-        <v>63.53913300507702</v>
+        <v>63.5391332434956</v>
       </c>
       <c r="AD32" s="1">
-        <v>17.32824584189802</v>
+        <v>17.32824596855789</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>607.5782043049468</v>
+        <v>607.5782051251051</v>
       </c>
       <c r="AG32" s="1">
-        <v>179.0452904237212</v>
+        <v>179.0452904399393</v>
       </c>
       <c r="AH32" s="1">
-        <v>43.2660591710566</v>
+        <v>43.2660591994409</v>
       </c>
       <c r="AI32" s="1">
-        <v>327.4567698658445</v>
+        <v>327.4567707508216</v>
       </c>
       <c r="AJ32" s="1">
-        <v>2333.50892790684</v>
+        <v>2333.508933367897</v>
       </c>
     </row>
   </sheetData>
@@ -13120,7 +13120,7 @@
         <v>0.8458845615386963</v>
       </c>
       <c r="L19" s="1">
-        <v>0.452051967382431</v>
+        <v>0.4520519375801086</v>
       </c>
       <c r="M19" s="1">
         <v>2.561554670333862</v>
@@ -13129,7 +13129,7 @@
         <v>0.1197015419602394</v>
       </c>
       <c r="O19" s="1">
-        <v>0.2251057326793671</v>
+        <v>0.2251057177782059</v>
       </c>
       <c r="P19" s="1">
         <v>0.571540892124176</v>
@@ -13180,19 +13180,19 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>14.45395389988911</v>
+        <v>14.45395389825345</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.2100989855065374</v>
+        <v>0.2100989652110521</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.5369291660927535</v>
+        <v>0.5369291604392473</v>
       </c>
       <c r="AI19" s="1">
-        <v>25.55263548294891</v>
+        <v>25.55263546767081</v>
       </c>
       <c r="AJ19" s="1">
-        <v>96.26490711609375</v>
+        <v>96.26490702852753</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -14550,7 +14550,7 @@
         <v>56.66664175142432</v>
       </c>
       <c r="L32" s="1">
-        <v>30.28756190976128</v>
+        <v>30.28756187995896</v>
       </c>
       <c r="M32" s="1">
         <v>159.5364383823471</v>
@@ -14559,7 +14559,7 @@
         <v>22.83216825692216</v>
       </c>
       <c r="O32" s="1">
-        <v>20.79523104282998</v>
+        <v>20.79523102792882</v>
       </c>
       <c r="P32" s="1">
         <v>89.23073901538737</v>
@@ -14610,19 +14610,19 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>674.1839224386289</v>
+        <v>674.1839224369932</v>
       </c>
       <c r="AG32" s="1">
-        <v>163.9507090208541</v>
+        <v>163.9507090005586</v>
       </c>
       <c r="AH32" s="1">
-        <v>48.34045396842465</v>
+        <v>48.34045396277115</v>
       </c>
       <c r="AI32" s="1">
-        <v>576.2616065300765</v>
+        <v>576.2616065147985</v>
       </c>
       <c r="AJ32" s="1">
-        <v>2707.413070297333</v>
+        <v>2707.413070209766</v>
       </c>
     </row>
   </sheetData>
@@ -20156,34 +20156,34 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.1835069358348846</v>
+        <v>0.1835069507360458</v>
       </c>
       <c r="C19" s="1">
-        <v>0.1323731541633606</v>
+        <v>0.1323731690645218</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1213687807321548</v>
+        <v>0.1213687881827354</v>
       </c>
       <c r="E19" s="1">
         <v>1.111636400222778</v>
       </c>
       <c r="F19" s="1">
-        <v>0.04819804430007935</v>
+        <v>0.04819804802536964</v>
       </c>
       <c r="G19" s="1">
-        <v>0.6000217795372009</v>
+        <v>0.6000218391418457</v>
       </c>
       <c r="H19" s="1">
-        <v>5.866959571838379</v>
+        <v>5.866960048675537</v>
       </c>
       <c r="I19" s="1">
-        <v>0.713461697101593</v>
+        <v>0.7134617567062378</v>
       </c>
       <c r="J19" s="1">
-        <v>0.8562957644462585</v>
+        <v>0.8562958240509033</v>
       </c>
       <c r="K19" s="1">
-        <v>1.309030413627625</v>
+        <v>1.309030532836914</v>
       </c>
       <c r="L19" s="1">
         <v>2.867483139038086</v>
@@ -20192,7 +20192,7 @@
         <v>4.829293727874756</v>
       </c>
       <c r="N19" s="1">
-        <v>0.2730258405208588</v>
+        <v>0.2730258703231812</v>
       </c>
       <c r="O19" s="1">
         <v>0.3260434865951538</v>
@@ -20201,43 +20201,43 @@
         <v>0.5348919630050659</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.8290160894393921</v>
+        <v>0.8290161490440369</v>
       </c>
       <c r="R19" s="1">
-        <v>5.971522808074951</v>
+        <v>5.971523284912109</v>
       </c>
       <c r="S19" s="1">
         <v>8.636942863464355</v>
       </c>
       <c r="T19" s="1">
-        <v>0.2338463366031647</v>
+        <v>0.2338463515043259</v>
       </c>
       <c r="U19" s="1">
-        <v>0.7160316109657288</v>
+        <v>0.7160316705703735</v>
       </c>
       <c r="V19" s="1">
-        <v>0.5704834461212158</v>
+        <v>0.5704835057258606</v>
       </c>
       <c r="W19" s="1">
-        <v>0.2408638447523117</v>
+        <v>0.2408638596534729</v>
       </c>
       <c r="X19" s="1">
-        <v>0.04098343476653099</v>
+        <v>0.04098343849182129</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.7602030634880066</v>
+        <v>0.7602031230926514</v>
       </c>
       <c r="Z19" s="1">
-        <v>1.953153729438782</v>
+        <v>1.953153848648071</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.125761985778809</v>
+        <v>2.125762224197388</v>
       </c>
       <c r="AB19" s="1">
-        <v>1.351612091064453</v>
+        <v>1.351612210273743</v>
       </c>
       <c r="AC19" s="1">
-        <v>2.672603130340576</v>
+        <v>2.672603368759155</v>
       </c>
       <c r="AD19" s="1">
         <v>1.266948580741882</v>
@@ -20246,19 +20246,19 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>10.06147065756575</v>
+        <v>10.06147128560155</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.2254868211805541</v>
+        <v>0.225486844076378</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.3473827364496561</v>
+        <v>0.347382759384389</v>
       </c>
       <c r="AI19" s="1">
-        <v>43.36214927191514</v>
+        <v>43.36215194552905</v>
       </c>
       <c r="AJ19" s="1">
-        <v>101.1400532009895</v>
+        <v>101.1400588581497</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -21586,34 +21586,34 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>50.33036093101691</v>
+        <v>50.33036094591807</v>
       </c>
       <c r="C32" s="1">
-        <v>5.629564734212181</v>
+        <v>5.629564749113342</v>
       </c>
       <c r="D32" s="1">
-        <v>5.525273751158238</v>
+        <v>5.525273758608819</v>
       </c>
       <c r="E32" s="1">
         <v>65.09976018290035</v>
       </c>
       <c r="F32" s="1">
-        <v>4.198317397123901</v>
+        <v>4.198317400849191</v>
       </c>
       <c r="G32" s="1">
-        <v>8.465198345598765</v>
+        <v>8.465198405203409</v>
       </c>
       <c r="H32" s="1">
-        <v>78.18260999093764</v>
+        <v>78.18261046777479</v>
       </c>
       <c r="I32" s="1">
-        <v>147.0086594567783</v>
+        <v>147.008659516383</v>
       </c>
       <c r="J32" s="1">
-        <v>22.77351207146421</v>
+        <v>22.77351213106886</v>
       </c>
       <c r="K32" s="1">
-        <v>88.89765224633447</v>
+        <v>88.89765236554376</v>
       </c>
       <c r="L32" s="1">
         <v>198.2894602306187</v>
@@ -21622,7 +21622,7 @@
         <v>306.3200326062797</v>
       </c>
       <c r="N32" s="1">
-        <v>53.51308752904879</v>
+        <v>53.51308755885111</v>
       </c>
       <c r="O32" s="1">
         <v>31.10408951751015</v>
@@ -21631,43 +21631,43 @@
         <v>85.28600313537754</v>
       </c>
       <c r="Q32" s="1">
-        <v>88.19855366228148</v>
+        <v>88.19855372188613</v>
       </c>
       <c r="R32" s="1">
-        <v>38.05139993433841</v>
+        <v>38.05140041117556</v>
       </c>
       <c r="S32" s="1">
         <v>37.58103234879673</v>
       </c>
       <c r="T32" s="1">
-        <v>12.18930104497122</v>
+        <v>12.18930105987238</v>
       </c>
       <c r="U32" s="1">
-        <v>22.57034711900633</v>
+        <v>22.57034717861097</v>
       </c>
       <c r="V32" s="1">
-        <v>12.20217433266225</v>
+        <v>12.2021743922669</v>
       </c>
       <c r="W32" s="1">
-        <v>12.73793579719495</v>
+        <v>12.73793581209611</v>
       </c>
       <c r="X32" s="1">
-        <v>12.10792104803841</v>
+        <v>12.1079210517637</v>
       </c>
       <c r="Y32" s="1">
-        <v>22.72923210798763</v>
+        <v>22.72923216759227</v>
       </c>
       <c r="Z32" s="1">
-        <v>18.04804305871949</v>
+        <v>18.04804317792878</v>
       </c>
       <c r="AA32" s="1">
-        <v>19.6843982655555</v>
+        <v>19.68439850397408</v>
       </c>
       <c r="AB32" s="1">
-        <v>8.684815100306878</v>
+        <v>8.684815219516167</v>
       </c>
       <c r="AC32" s="1">
-        <v>47.33657223836053</v>
+        <v>47.33657247677911</v>
       </c>
       <c r="AD32" s="1">
         <v>13.0539327657898</v>
@@ -21676,19 +21676,19 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>484.8504699673172</v>
+        <v>484.850470595353</v>
       </c>
       <c r="AG32" s="1">
-        <v>194.9374219738095</v>
+        <v>194.9374219967053</v>
       </c>
       <c r="AH32" s="1">
-        <v>32.46733054664271</v>
+        <v>32.46733056957744</v>
       </c>
       <c r="AI32" s="1">
-        <v>1003.850691731006</v>
+        <v>1003.85069440462</v>
       </c>
       <c r="AJ32" s="1">
-        <v>3231.905155169145</v>
+        <v>3231.905160826305</v>
       </c>
     </row>
   </sheetData>
@@ -25772,19 +25772,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>182.9643863102235</v>
+        <v>182.9643863090281</v>
       </c>
       <c r="AG5" s="1">
         <v>1.366066991111865</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.3323927556454636</v>
+        <v>0.3323927556033133</v>
       </c>
       <c r="AI5" s="1">
-        <v>5.224351428570714</v>
+        <v>5.224351427328161</v>
       </c>
       <c r="AJ5" s="1">
-        <v>260.1356426671932</v>
+        <v>260.1356426647131</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -25882,19 +25882,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>128.1785159228907</v>
+        <v>128.1785159228534</v>
       </c>
       <c r="AG6" s="1">
         <v>0.7008930867250684</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.3546794117959318</v>
+        <v>0.3546794117946145</v>
       </c>
       <c r="AI6" s="1">
-        <v>5.187510249999549</v>
+        <v>5.187510249960718</v>
       </c>
       <c r="AJ6" s="1">
-        <v>162.7569419466305</v>
+        <v>162.756941946553</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -25992,19 +25992,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.401804104690648</v>
+        <v>3.401804104092963</v>
       </c>
       <c r="AG7" s="1">
         <v>1.136506309545991</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.6355669310253231</v>
+        <v>0.635566931004248</v>
       </c>
       <c r="AI7" s="1">
-        <v>6.489274000747828</v>
+        <v>6.489274000126553</v>
       </c>
       <c r="AJ7" s="1">
-        <v>47.76536021926682</v>
+        <v>47.7653602180268</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -26102,19 +26102,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.572382923078777</v>
+        <v>8.572382922929354</v>
       </c>
       <c r="AG8" s="1">
         <v>0.8874365705351346</v>
       </c>
       <c r="AH8" s="1">
-        <v>1.449911887078821</v>
+        <v>1.449911887073552</v>
       </c>
       <c r="AI8" s="1">
-        <v>19.32148643029715</v>
+        <v>19.32148643014183</v>
       </c>
       <c r="AJ8" s="1">
-        <v>69.00749512958672</v>
+        <v>69.00749512927672</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -26212,19 +26212,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>136.5060266497211</v>
+        <v>136.5060266485257</v>
       </c>
       <c r="AG9" s="1">
         <v>1.503307491624883</v>
       </c>
       <c r="AH9" s="1">
-        <v>37.57695393274884</v>
+        <v>37.57695393270669</v>
       </c>
       <c r="AI9" s="1">
-        <v>95.84724662956995</v>
+        <v>95.84724662832738</v>
       </c>
       <c r="AJ9" s="1">
-        <v>560.2020759801196</v>
+        <v>560.2020759776397</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -26283,7 +26283,7 @@
         <v>1.367371439933777</v>
       </c>
       <c r="S10" s="1">
-        <v>0.3107720911502838</v>
+        <v>0.3107720613479614</v>
       </c>
       <c r="T10" s="1">
         <v>0.03323100879788399</v>
@@ -26322,19 +26322,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.826434204446858</v>
+        <v>5.82643420205612</v>
       </c>
       <c r="AG10" s="1">
         <v>1.26707882842839</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.4875240080891813</v>
+        <v>0.4875240080048808</v>
       </c>
       <c r="AI10" s="1">
-        <v>4.445001530148517</v>
+        <v>4.445001527663409</v>
       </c>
       <c r="AJ10" s="1">
-        <v>59.46358971934875</v>
+        <v>59.46358968458627</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -26432,19 +26432,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>26.82702382071008</v>
+        <v>26.82702381592861</v>
       </c>
       <c r="AG11" s="1">
         <v>29.6992862222868</v>
       </c>
       <c r="AH11" s="1">
-        <v>2.407638778981227</v>
+        <v>2.407638778812626</v>
       </c>
       <c r="AI11" s="1">
-        <v>67.21394472390085</v>
+        <v>67.21394471893065</v>
       </c>
       <c r="AJ11" s="1">
-        <v>386.4888306536804</v>
+        <v>386.4888306437601</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -26542,19 +26542,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>142.7138233519182</v>
+        <v>142.7138233471367</v>
       </c>
       <c r="AG12" s="1">
         <v>134.6554599062023</v>
       </c>
       <c r="AH12" s="1">
-        <v>8.625579409042498</v>
+        <v>8.625579408873897</v>
       </c>
       <c r="AI12" s="1">
-        <v>121.44998829843</v>
+        <v>121.4499882934598</v>
       </c>
       <c r="AJ12" s="1">
-        <v>898.5011220417953</v>
+        <v>898.5011220318751</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -26652,19 +26652,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>15.05340712535164</v>
+        <v>15.0534071229609</v>
       </c>
       <c r="AG13" s="1">
         <v>43.56410838051744</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.1343207253460492</v>
+        <v>0.1343207252617488</v>
       </c>
       <c r="AI13" s="1">
-        <v>37.18583028205477</v>
+        <v>37.18583027956966</v>
       </c>
       <c r="AJ13" s="1">
-        <v>129.8294628497792</v>
+        <v>129.829462844819</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -26762,19 +26762,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>92.9460811599744</v>
+        <v>92.94608115967556</v>
       </c>
       <c r="AG14" s="1">
         <v>50.00914266066435</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.03662497469982255</v>
+        <v>0.03662497468928499</v>
       </c>
       <c r="AI14" s="1">
-        <v>22.7469991713878</v>
+        <v>22.74699917107716</v>
       </c>
       <c r="AJ14" s="1">
-        <v>190.2724146414096</v>
+        <v>190.2724146407896</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -26872,19 +26872,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>46.46689384138053</v>
+        <v>46.46689383659905</v>
       </c>
       <c r="AG15" s="1">
         <v>9.019436740620757</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.2386057803225657</v>
+        <v>0.2386057801539648</v>
       </c>
       <c r="AI15" s="1">
-        <v>6.516124073121775</v>
+        <v>6.51612406815156</v>
       </c>
       <c r="AJ15" s="1">
-        <v>94.31125338715465</v>
+        <v>94.31125337723435</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -27222,85 +27222,85 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.2333595603704453</v>
+        <v>0.2333595454692841</v>
       </c>
       <c r="C19" s="1">
-        <v>0.3271912932395935</v>
+        <v>0.3271912634372711</v>
       </c>
       <c r="D19" s="1">
-        <v>1.310397982597351</v>
+        <v>1.310397863388062</v>
       </c>
       <c r="E19" s="1">
-        <v>1.49990439414978</v>
+        <v>1.499904274940491</v>
       </c>
       <c r="F19" s="1">
-        <v>0.1954824179410934</v>
+        <v>0.1954824030399323</v>
       </c>
       <c r="G19" s="1">
-        <v>3.371659278869629</v>
+        <v>3.37165904045105</v>
       </c>
       <c r="H19" s="1">
-        <v>5.848124980926514</v>
+        <v>5.848124504089355</v>
       </c>
       <c r="I19" s="1">
-        <v>0.9008828401565552</v>
+        <v>0.9008827805519104</v>
       </c>
       <c r="J19" s="1">
-        <v>0.9360974431037903</v>
+        <v>0.9360973834991455</v>
       </c>
       <c r="K19" s="1">
         <v>4.886916160583496</v>
       </c>
       <c r="L19" s="1">
-        <v>7.711379051208496</v>
+        <v>7.711378574371338</v>
       </c>
       <c r="M19" s="1">
         <v>0.3191878199577332</v>
       </c>
       <c r="N19" s="1">
-        <v>0.0694238692522049</v>
+        <v>0.0694238618016243</v>
       </c>
       <c r="O19" s="1">
-        <v>0.3795903027057648</v>
+        <v>0.3795902729034424</v>
       </c>
       <c r="P19" s="1">
         <v>0.4338598251342773</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.894697546958923</v>
+        <v>1.894697427749634</v>
       </c>
       <c r="R19" s="1">
         <v>19.42158126831055</v>
       </c>
       <c r="S19" s="1">
-        <v>15.46370506286621</v>
+        <v>15.46370410919189</v>
       </c>
       <c r="T19" s="1">
-        <v>0.5708944201469421</v>
+        <v>0.5708943605422974</v>
       </c>
       <c r="U19" s="1">
         <v>1.253235816955566</v>
       </c>
       <c r="V19" s="1">
-        <v>1.128515839576721</v>
+        <v>1.128515720367432</v>
       </c>
       <c r="W19" s="1">
-        <v>0.5236895680427551</v>
+        <v>0.5236895084381104</v>
       </c>
       <c r="X19" s="1">
-        <v>0.08549341559410095</v>
+        <v>0.08549340814352036</v>
       </c>
       <c r="Y19" s="1">
-        <v>1.886574983596802</v>
+        <v>1.886574864387512</v>
       </c>
       <c r="Z19" s="1">
-        <v>3.001261472702026</v>
+        <v>3.001261234283447</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.293808937072754</v>
+        <v>5.293808460235596</v>
       </c>
       <c r="AB19" s="1">
-        <v>3.541083335876465</v>
+        <v>3.541083097457886</v>
       </c>
       <c r="AC19" s="1">
         <v>6.063629627227783</v>
@@ -27312,19 +27312,19 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>20.94564588417366</v>
+        <v>20.94564466412163</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.6007004668246049</v>
+        <v>0.6007005277513204</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.7972838428001947</v>
+        <v>0.7972838080055891</v>
       </c>
       <c r="AI19" s="1">
-        <v>21.26006583796274</v>
+        <v>21.26006457838569</v>
       </c>
       <c r="AJ19" s="1">
-        <v>135.0170780106307</v>
+        <v>135.017071518919</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -28102,10 +28102,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.007568587083369493</v>
+        <v>0.007568586617708206</v>
       </c>
       <c r="C27" s="1">
-        <v>0.009322488680481911</v>
+        <v>0.009322487749159336</v>
       </c>
       <c r="D27" s="1">
         <v>0.0591723844408989</v>
@@ -28117,13 +28117,13 @@
         <v>0.0322648361325264</v>
       </c>
       <c r="G27" s="1">
-        <v>0.1033376827836037</v>
+        <v>0.1033376753330231</v>
       </c>
       <c r="H27" s="1">
         <v>0.1389830708503723</v>
       </c>
       <c r="I27" s="1">
-        <v>0.06149454042315483</v>
+        <v>0.06149453669786453</v>
       </c>
       <c r="J27" s="1">
         <v>0.0451735146343708</v>
@@ -28153,7 +28153,7 @@
         <v>0.8236490488052368</v>
       </c>
       <c r="S27" s="1">
-        <v>0.243821918964386</v>
+        <v>0.2438219040632248</v>
       </c>
       <c r="T27" s="1">
         <v>0.1106158345937729</v>
@@ -28174,13 +28174,13 @@
         <v>0.4523399472236633</v>
       </c>
       <c r="Z27" s="1">
-        <v>0.1197114959359169</v>
+        <v>0.1197114884853363</v>
       </c>
       <c r="AA27" s="1">
         <v>0.2932217717170715</v>
       </c>
       <c r="AB27" s="1">
-        <v>0.0892568975687027</v>
+        <v>0.0892568901181221</v>
       </c>
       <c r="AC27" s="1">
         <v>0.1892140209674835</v>
@@ -28192,19 +28192,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>0.7344793621874771</v>
+        <v>0.7344793430615763</v>
       </c>
       <c r="AG27" s="1">
         <v>2.473004356293206</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.365246039554227</v>
+        <v>0.3652460388798233</v>
       </c>
       <c r="AI27" s="1">
-        <v>0.7200298230876989</v>
+        <v>0.7200298032068357</v>
       </c>
       <c r="AJ27" s="1">
-        <v>11.80559057009226</v>
+        <v>11.80559048803592</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -28652,85 +28652,85 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>57.72885603923351</v>
+        <v>57.72885602386668</v>
       </c>
       <c r="C32" s="1">
-        <v>13.29330725023465</v>
+        <v>13.293307219501</v>
       </c>
       <c r="D32" s="1">
-        <v>57.88192664680537</v>
+        <v>57.88192652759608</v>
       </c>
       <c r="E32" s="1">
-        <v>84.42202570009977</v>
+        <v>84.42202558089048</v>
       </c>
       <c r="F32" s="1">
-        <v>15.90574661566643</v>
+        <v>15.90574660076527</v>
       </c>
       <c r="G32" s="1">
-        <v>45.83033712394536</v>
+        <v>45.8303368780762</v>
       </c>
       <c r="H32" s="1">
-        <v>74.39539345353842</v>
+        <v>74.39539297670126</v>
       </c>
       <c r="I32" s="1">
-        <v>179.2554953810268</v>
+        <v>179.2554953176968</v>
       </c>
       <c r="J32" s="1">
-        <v>24.00591554958373</v>
+        <v>24.00591548997909</v>
       </c>
       <c r="K32" s="1">
         <v>323.8048932936508</v>
       </c>
       <c r="L32" s="1">
-        <v>508.7266373410821</v>
+        <v>508.7266368642449</v>
       </c>
       <c r="M32" s="1">
         <v>19.64231273364931</v>
       </c>
       <c r="N32" s="1">
-        <v>13.03008655620215</v>
+        <v>13.03008654875157</v>
       </c>
       <c r="O32" s="1">
-        <v>34.41730438426384</v>
+        <v>34.41730435446152</v>
       </c>
       <c r="P32" s="1">
         <v>67.07371419342235</v>
       </c>
       <c r="Q32" s="1">
-        <v>191.9086202979088</v>
+        <v>191.9086201786995</v>
       </c>
       <c r="R32" s="1">
         <v>120.2698359638453</v>
       </c>
       <c r="S32" s="1">
-        <v>64.25225603091531</v>
+        <v>64.25225503253751</v>
       </c>
       <c r="T32" s="1">
-        <v>28.64679315919057</v>
+        <v>28.64679309958592</v>
       </c>
       <c r="U32" s="1">
         <v>38.36036013625562</v>
       </c>
       <c r="V32" s="1">
-        <v>23.27836189314257</v>
+        <v>23.27836177393328</v>
       </c>
       <c r="W32" s="1">
-        <v>26.85948495194316</v>
+        <v>26.85948489233851</v>
       </c>
       <c r="X32" s="1">
-        <v>24.45053679583361</v>
+        <v>24.45053678838303</v>
       </c>
       <c r="Y32" s="1">
-        <v>54.14027191605419</v>
+        <v>54.1402717968449</v>
       </c>
       <c r="Z32" s="1">
-        <v>26.57220137142576</v>
+        <v>26.5722011255566</v>
       </c>
       <c r="AA32" s="1">
-        <v>47.38992484239861</v>
+        <v>47.38992436556146</v>
       </c>
       <c r="AB32" s="1">
-        <v>21.93758874887135</v>
+        <v>21.93758850300219</v>
       </c>
       <c r="AC32" s="1">
         <v>101.2895032675005</v>
@@ -28742,19 +28742,19 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>956.2452565030509</v>
+        <v>956.2452552412731</v>
       </c>
       <c r="AG32" s="1">
-        <v>373.976545037232</v>
+        <v>373.9765450981587</v>
       </c>
       <c r="AH32" s="1">
-        <v>70.86609563616922</v>
+        <v>70.86609559990332</v>
       </c>
       <c r="AI32" s="1">
-        <v>470.024548302473</v>
+        <v>470.0245469995231</v>
       </c>
       <c r="AJ32" s="1">
-        <v>4188.241238324659</v>
+        <v>4188.241231674199</v>
       </c>
     </row>
   </sheetData>
@@ -29305,19 +29305,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>34.24637476014878</v>
+        <v>34.24637476017746</v>
       </c>
       <c r="AG5" s="1">
         <v>0.02511288670220703</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.07112447299904454</v>
+        <v>0.07112447300003298</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.4893326347500008</v>
+        <v>0.4893326347642285</v>
       </c>
       <c r="AJ5" s="1">
-        <v>42.27941214033307</v>
+        <v>42.27941214037697</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -29415,19 +29415,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.38563407668835</v>
+        <v>19.38563407668858</v>
       </c>
       <c r="AG6" s="1">
         <v>0.03375777122569049</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.04338664007305979</v>
+        <v>0.04338664007306751</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.3586950833691846</v>
+        <v>0.3586950833692958</v>
       </c>
       <c r="AJ6" s="1">
-        <v>22.15761044225739</v>
+        <v>22.15761044225773</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -29525,19 +29525,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.686048275897222</v>
+        <v>3.686048276011931</v>
       </c>
       <c r="AG7" s="1">
         <v>0.1051799936132427</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.8907180879277384</v>
+        <v>0.8907180879316923</v>
       </c>
       <c r="AI7" s="1">
-        <v>1.555351589861648</v>
+        <v>1.555351589918559</v>
       </c>
       <c r="AJ7" s="1">
-        <v>15.25905200304947</v>
+        <v>15.25905200322505</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -29745,19 +29745,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>15.69923807407608</v>
+        <v>15.69923807408325</v>
       </c>
       <c r="AG9" s="1">
         <v>0.01087208488556574</v>
       </c>
       <c r="AH9" s="1">
-        <v>4.243362485545983</v>
+        <v>4.24336248554623</v>
       </c>
       <c r="AI9" s="1">
-        <v>5.281891326999824</v>
+        <v>5.281891327003381</v>
       </c>
       <c r="AJ9" s="1">
-        <v>50.58014631743571</v>
+        <v>50.58014631744668</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -29855,19 +29855,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.027083517837305</v>
+        <v>4.027083518066723</v>
       </c>
       <c r="AG10" s="1">
         <v>0.1499040336601665</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.7184531409250517</v>
+        <v>0.7184531409329594</v>
       </c>
       <c r="AI10" s="1">
-        <v>1.223638532643009</v>
+        <v>1.223638532756831</v>
       </c>
       <c r="AJ10" s="1">
-        <v>16.79507411208225</v>
+        <v>16.79507411243339</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -29965,19 +29965,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.546888768612199</v>
+        <v>2.546888768669554</v>
       </c>
       <c r="AG11" s="1">
         <v>0.9157272395295266</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.3554700712028652</v>
+        <v>0.3554700712048421</v>
       </c>
       <c r="AI11" s="1">
-        <v>4.308285013059196</v>
+        <v>4.308285013087652</v>
       </c>
       <c r="AJ11" s="1">
-        <v>20.30672645069055</v>
+        <v>20.30672645077833</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -30075,19 +30075,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>23.74557007974455</v>
+        <v>23.74557007997397</v>
       </c>
       <c r="AG12" s="1">
         <v>11.10665881342723</v>
       </c>
       <c r="AH12" s="1">
-        <v>1.491500707143649</v>
+        <v>1.491500707151556</v>
       </c>
       <c r="AI12" s="1">
-        <v>9.451459857471928</v>
+        <v>9.45145985758575</v>
       </c>
       <c r="AJ12" s="1">
-        <v>78.28685284064167</v>
+        <v>78.28685284099282</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -30185,19 +30185,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>1.598030915889348</v>
+        <v>1.598030916004058</v>
       </c>
       <c r="AG13" s="1">
         <v>4.754207583798283</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.03683644944706932</v>
+        <v>0.03683644945102314</v>
       </c>
       <c r="AI13" s="1">
-        <v>2.795722815227989</v>
+        <v>2.7957228152849</v>
       </c>
       <c r="AJ13" s="1">
-        <v>14.03071649123721</v>
+        <v>14.03071649141278</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -30405,19 +30405,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>12.01631747337195</v>
+        <v>12.01631747360137</v>
       </c>
       <c r="AG15" s="1">
         <v>0.8193874327887818</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.1287444453446305</v>
+        <v>0.1287444453525382</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.7479107259990242</v>
+        <v>0.747910726112846</v>
       </c>
       <c r="AJ15" s="1">
-        <v>19.19693220904035</v>
+        <v>19.1969322093915</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -30755,7 +30755,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.03614943102002144</v>
+        <v>0.03614942729473114</v>
       </c>
       <c r="C19" s="1">
         <v>0.1610252857208252</v>
@@ -30794,7 +30794,7 @@
         <v>0.1015566438436508</v>
       </c>
       <c r="O19" s="1">
-        <v>0.035630714148283</v>
+        <v>0.03563071042299271</v>
       </c>
       <c r="P19" s="1">
         <v>0.1658979207277298</v>
@@ -30845,19 +30845,19 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.00620769016628</v>
+        <v>4.00620767824993</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.05368361191607361</v>
+        <v>0.05368360521407382</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.1578287142459871</v>
+        <v>0.1578287111237611</v>
       </c>
       <c r="AI19" s="1">
-        <v>1.947360973475099</v>
+        <v>1.947360970060583</v>
       </c>
       <c r="AJ19" s="1">
-        <v>19.34123492436416</v>
+        <v>19.34123489175849</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -31635,10 +31635,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.003599526826292276</v>
+        <v>0.00359952705912292</v>
       </c>
       <c r="C27" s="1">
-        <v>0.01380219031125307</v>
+        <v>0.01380219124257565</v>
       </c>
       <c r="D27" s="1">
         <v>0.1943773776292801</v>
@@ -31686,7 +31686,7 @@
         <v>0.2879204154014587</v>
       </c>
       <c r="S27" s="1">
-        <v>0.1142367646098137</v>
+        <v>0.1142367720603943</v>
       </c>
       <c r="T27" s="1">
         <v>0.06637540459632874</v>
@@ -31713,7 +31713,7 @@
         <v>0.2858797013759613</v>
       </c>
       <c r="AB27" s="1">
-        <v>0.02737855538725853</v>
+        <v>0.02737855724990368</v>
       </c>
       <c r="AC27" s="1">
         <v>0.1014409065246582</v>
@@ -31725,19 +31725,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>0.3542340578274987</v>
+        <v>0.3542340651689084</v>
       </c>
       <c r="AG27" s="1">
         <v>0.5088927507737266</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.2282462542155946</v>
+        <v>0.2282462544686391</v>
       </c>
       <c r="AI27" s="1">
-        <v>0.2184351049820478</v>
+        <v>0.2184351086243434</v>
       </c>
       <c r="AJ27" s="1">
-        <v>3.646399140818934</v>
+        <v>3.646399162533062</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -32185,10 +32185,10 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>8.797264197110053</v>
+        <v>8.797264193617593</v>
       </c>
       <c r="C32" s="1">
-        <v>6.483527382326429</v>
+        <v>6.483527383257751</v>
       </c>
       <c r="D32" s="1">
         <v>59.44453085018904</v>
@@ -32224,7 +32224,7 @@
         <v>18.65653273835778</v>
       </c>
       <c r="O32" s="1">
-        <v>3.131616854734148</v>
+        <v>3.131616851008857</v>
       </c>
       <c r="P32" s="1">
         <v>25.05454017908778</v>
@@ -32236,7 +32236,7 @@
         <v>13.1800460414961</v>
       </c>
       <c r="S32" s="1">
-        <v>10.73324775602669</v>
+        <v>10.73324776347727</v>
       </c>
       <c r="T32" s="1">
         <v>5.089210775448009</v>
@@ -32263,7 +32263,7 @@
         <v>13.66878980165347</v>
       </c>
       <c r="AB32" s="1">
-        <v>2.322564274480101</v>
+        <v>2.322564276342746</v>
       </c>
       <c r="AC32" s="1">
         <v>18.96170157403685</v>
@@ -32275,19 +32275,19 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>180.9153362064834</v>
+        <v>180.9153362029195</v>
       </c>
       <c r="AG32" s="1">
-        <v>40.44007689263579</v>
+        <v>40.4400768859338</v>
       </c>
       <c r="AH32" s="1">
-        <v>13.1097178651708</v>
+        <v>13.10971786233647</v>
       </c>
       <c r="AI32" s="1">
-        <v>42.66489184259854</v>
+        <v>42.66489184332795</v>
       </c>
       <c r="AJ32" s="1">
-        <v>555.7128750151771</v>
+        <v>555.712875005833</v>
       </c>
     </row>
   </sheetData>
@@ -32748,7 +32748,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2.273521661758423</v>
+        <v>2.273521423339844</v>
       </c>
       <c r="C5" s="1">
         <v>0.09169099479913712</v>
@@ -32766,10 +32766,10 @@
         <v>0.02004366181790829</v>
       </c>
       <c r="H5" s="1">
-        <v>1.861187696456909</v>
+        <v>1.86118757724762</v>
       </c>
       <c r="I5" s="1">
-        <v>0.2662573754787445</v>
+        <v>0.2662573456764221</v>
       </c>
       <c r="J5" s="1">
         <v>0.008928419090807438</v>
@@ -32793,28 +32793,28 @@
         <v>0.1939589232206345</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.3443016111850739</v>
+        <v>0.3443015813827515</v>
       </c>
       <c r="R5" s="1">
         <v>0.1547333598136902</v>
       </c>
       <c r="S5" s="1">
-        <v>0.4721734523773193</v>
+        <v>0.4721734225749969</v>
       </c>
       <c r="T5" s="1">
-        <v>11.98575305938721</v>
+        <v>11.98575210571289</v>
       </c>
       <c r="U5" s="1">
-        <v>0.1606543362140656</v>
+        <v>0.1606543213129044</v>
       </c>
       <c r="V5" s="1">
-        <v>0.1724266558885574</v>
+        <v>0.1724266409873962</v>
       </c>
       <c r="W5" s="1">
         <v>0.4738642275333405</v>
       </c>
       <c r="X5" s="1">
-        <v>0.06063142791390419</v>
+        <v>0.06063142418861389</v>
       </c>
       <c r="Y5" s="1">
         <v>0.419231504201889</v>
@@ -32823,7 +32823,7 @@
         <v>0.6461095809936523</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.100260496139526</v>
+        <v>1.100260376930237</v>
       </c>
       <c r="AB5" s="1">
         <v>0.501387357711792</v>
@@ -32832,7 +32832,7 @@
         <v>1.283134341239929</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.7574693560600281</v>
+        <v>0.7574692964553833</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -32850,7 +32850,7 @@
         <v>10.31547407817562</v>
       </c>
       <c r="AJ5" s="1">
-        <v>123.0544735659219</v>
+        <v>123.0544719528712</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -35718,7 +35718,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>14.19557921552769</v>
+        <v>14.19557897710911</v>
       </c>
       <c r="C32" s="1">
         <v>7.97826589657052</v>
@@ -35736,10 +35736,10 @@
         <v>9.86227236664854</v>
       </c>
       <c r="H32" s="1">
-        <v>107.4998059193604</v>
+        <v>107.4998058001511</v>
       </c>
       <c r="I32" s="1">
-        <v>17.6115579073421</v>
+        <v>17.61155787753978</v>
       </c>
       <c r="J32" s="1">
         <v>10.02028894791147</v>
@@ -35763,28 +35763,28 @@
         <v>57.78797006607056</v>
       </c>
       <c r="Q32" s="1">
-        <v>73.56716614123434</v>
+        <v>73.56716611143202</v>
       </c>
       <c r="R32" s="1">
         <v>42.75372323300689</v>
       </c>
       <c r="S32" s="1">
-        <v>32.57641376601532</v>
+        <v>32.576413736213</v>
       </c>
       <c r="T32" s="1">
-        <v>25.42868707235903</v>
+        <v>25.42868611868471</v>
       </c>
       <c r="U32" s="1">
-        <v>11.38866524829064</v>
+        <v>11.38866523338947</v>
       </c>
       <c r="V32" s="1">
-        <v>6.536155202193186</v>
+        <v>6.536155187292024</v>
       </c>
       <c r="W32" s="1">
         <v>13.05780612840317</v>
       </c>
       <c r="X32" s="1">
-        <v>11.47941821537097</v>
+        <v>11.47941821164568</v>
       </c>
       <c r="Y32" s="1">
         <v>18.50477784825489</v>
@@ -35793,7 +35793,7 @@
         <v>13.00252771214582</v>
       </c>
       <c r="AA32" s="1">
-        <v>34.78841263987124</v>
+        <v>34.78841252066195</v>
       </c>
       <c r="AB32" s="1">
         <v>8.890245917544235</v>
@@ -35802,7 +35802,7 @@
         <v>47.71307299332693</v>
       </c>
       <c r="AD32" s="1">
-        <v>14.38921782409307</v>
+        <v>14.38921776448842</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>1023.740696339287</v>
       </c>
       <c r="AJ32" s="1">
-        <v>3111.746775932267</v>
+        <v>3111.746774319216</v>
       </c>
     </row>
   </sheetData>
@@ -41354,109 +41354,109 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.3559440672397614</v>
+        <v>0.355944037437439</v>
       </c>
       <c r="C19" s="1">
-        <v>0.2151042073965073</v>
+        <v>0.2151041924953461</v>
       </c>
       <c r="D19" s="1">
-        <v>0.506932258605957</v>
+        <v>0.5069321990013123</v>
       </c>
       <c r="E19" s="1">
-        <v>2.08093786239624</v>
+        <v>2.080937623977661</v>
       </c>
       <c r="F19" s="1">
         <v>0.1050517186522484</v>
       </c>
       <c r="G19" s="1">
-        <v>0.9973280429840088</v>
+        <v>0.997327983379364</v>
       </c>
       <c r="H19" s="1">
-        <v>1.003919243812561</v>
+        <v>1.003919124603271</v>
       </c>
       <c r="I19" s="1">
-        <v>4.482548236846924</v>
+        <v>4.482547760009766</v>
       </c>
       <c r="J19" s="1">
-        <v>3.103863000869751</v>
+        <v>3.103862762451172</v>
       </c>
       <c r="K19" s="1">
-        <v>2.288859367370605</v>
+        <v>2.288859128952026</v>
       </c>
       <c r="L19" s="1">
         <v>1.584920883178711</v>
       </c>
       <c r="M19" s="1">
-        <v>3.153408527374268</v>
+        <v>3.153408288955688</v>
       </c>
       <c r="N19" s="1">
-        <v>1.111792802810669</v>
+        <v>1.111792683601379</v>
       </c>
       <c r="O19" s="1">
-        <v>0.5409102439880371</v>
+        <v>0.5409101843833923</v>
       </c>
       <c r="P19" s="1">
         <v>0.6072831749916077</v>
       </c>
       <c r="Q19" s="1">
-        <v>2.062984466552734</v>
+        <v>2.062984228134155</v>
       </c>
       <c r="R19" s="1">
         <v>21.74631309509277</v>
       </c>
       <c r="S19" s="1">
-        <v>29.12236022949219</v>
+        <v>29.12235832214355</v>
       </c>
       <c r="T19" s="1">
-        <v>0.8853745460510254</v>
+        <v>0.8853744864463806</v>
       </c>
       <c r="U19" s="1">
-        <v>1.617385387420654</v>
+        <v>1.617385268211365</v>
       </c>
       <c r="V19" s="1">
-        <v>1.789599895477295</v>
+        <v>1.789599776268005</v>
       </c>
       <c r="W19" s="1">
-        <v>0.6695160865783691</v>
+        <v>0.6695160269737244</v>
       </c>
       <c r="X19" s="1">
         <v>0.1119692325592041</v>
       </c>
       <c r="Y19" s="1">
-        <v>3.647713661193848</v>
+        <v>3.647713184356689</v>
       </c>
       <c r="Z19" s="1">
-        <v>5.134701728820801</v>
+        <v>5.134701251983643</v>
       </c>
       <c r="AA19" s="1">
         <v>5.678234577178955</v>
       </c>
       <c r="AB19" s="1">
-        <v>3.651026010513306</v>
+        <v>3.651025772094727</v>
       </c>
       <c r="AC19" s="1">
-        <v>7.25358772277832</v>
+        <v>7.253587245941162</v>
       </c>
       <c r="AD19" s="1">
-        <v>3.894775390625</v>
+        <v>3.894775152206421</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>26.82825214627012</v>
+        <v>26.82825047948757</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.7334597603254306</v>
+        <v>0.7334597095728407</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.9700543995088811</v>
+        <v>0.9700543393156954</v>
       </c>
       <c r="AI19" s="1">
-        <v>51.76316920619992</v>
+        <v>51.76316606113918</v>
       </c>
       <c r="AJ19" s="1">
-        <v>189.6992811811567</v>
+        <v>189.6992699551764</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -42784,109 +42784,109 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>79.25944848963991</v>
+        <v>79.25944845983759</v>
       </c>
       <c r="C32" s="1">
-        <v>8.741378381193499</v>
+        <v>8.741378366292338</v>
       </c>
       <c r="D32" s="1">
-        <v>22.38248277929961</v>
+        <v>22.38248271969496</v>
       </c>
       <c r="E32" s="1">
-        <v>116.0373818948865</v>
+        <v>116.0373816564679</v>
       </c>
       <c r="F32" s="1">
         <v>8.503669882251415</v>
       </c>
       <c r="G32" s="1">
-        <v>13.66238153353333</v>
+        <v>13.66238147392869</v>
       </c>
       <c r="H32" s="1">
-        <v>12.93306043179473</v>
+        <v>12.93306031258544</v>
       </c>
       <c r="I32" s="1">
-        <v>890.1534274680598</v>
+        <v>890.1534269912227</v>
       </c>
       <c r="J32" s="1">
-        <v>79.77124715270475</v>
+        <v>79.77124691428617</v>
       </c>
       <c r="K32" s="1">
-        <v>151.3662620226241</v>
+        <v>151.3662617842056</v>
       </c>
       <c r="L32" s="1">
         <v>100.253723397851</v>
       </c>
       <c r="M32" s="1">
-        <v>193.2418441305199</v>
+        <v>193.2418438921013</v>
       </c>
       <c r="N32" s="1">
-        <v>207.9986709770747</v>
+        <v>207.9986708578654</v>
       </c>
       <c r="O32" s="1">
-        <v>48.72402339545806</v>
+        <v>48.72402333585342</v>
       </c>
       <c r="P32" s="1">
         <v>92.03127000224777</v>
       </c>
       <c r="Q32" s="1">
-        <v>206.6653329581022</v>
+        <v>206.6653327196836</v>
       </c>
       <c r="R32" s="1">
         <v>134.51557565853</v>
       </c>
       <c r="S32" s="1">
-        <v>122.3457446321845</v>
+        <v>122.3457427248359</v>
       </c>
       <c r="T32" s="1">
-        <v>43.4725175825879</v>
+        <v>43.47251752298325</v>
       </c>
       <c r="U32" s="1">
-        <v>48.3702169903554</v>
+        <v>48.37021687114611</v>
       </c>
       <c r="V32" s="1">
-        <v>36.85407182201743</v>
+        <v>36.85407170280814</v>
       </c>
       <c r="W32" s="1">
-        <v>34.02853489527479</v>
+        <v>34.02853483567014</v>
       </c>
       <c r="X32" s="1">
         <v>31.33222701435443</v>
       </c>
       <c r="Y32" s="1">
-        <v>102.6813727281988</v>
+        <v>102.6813722513616</v>
       </c>
       <c r="Z32" s="1">
-        <v>45.74181513767689</v>
+        <v>45.74181466083974</v>
       </c>
       <c r="AA32" s="1">
         <v>50.79634414194152</v>
       </c>
       <c r="AB32" s="1">
-        <v>22.75134703097865</v>
+        <v>22.75134679256007</v>
       </c>
       <c r="AC32" s="1">
-        <v>122.9207429853268</v>
+        <v>122.9207425084896</v>
       </c>
       <c r="AD32" s="1">
-        <v>38.74344299617223</v>
+        <v>38.74344275775366</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1232.930288644172</v>
+        <v>1232.93028697739</v>
       </c>
       <c r="AG32" s="1">
-        <v>349.9048118525246</v>
+        <v>349.904811801772</v>
       </c>
       <c r="AH32" s="1">
-        <v>83.35649318834699</v>
+        <v>83.3564931281538</v>
       </c>
       <c r="AI32" s="1">
-        <v>1153.309154637074</v>
+        <v>1153.309151492013</v>
       </c>
       <c r="AJ32" s="1">
-        <v>5885.780306834958</v>
+        <v>5885.780295608977</v>
       </c>
     </row>
   </sheetData>
@@ -43437,19 +43437,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>112.0849207734557</v>
+        <v>112.0849207748756</v>
       </c>
       <c r="AG5" s="1">
         <v>0.9315976407803366</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.3264955628532162</v>
+        <v>0.3264955628996106</v>
       </c>
       <c r="AI5" s="1">
-        <v>14.25434953294263</v>
+        <v>14.25434953903209</v>
       </c>
       <c r="AJ5" s="1">
-        <v>188.1764115605994</v>
+        <v>188.1764115681551</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -43547,19 +43547,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>80.08208933824505</v>
+        <v>80.08208933826724</v>
       </c>
       <c r="AG6" s="1">
         <v>0.2807571703175664</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.170706266721935</v>
+        <v>0.1707062667226599</v>
       </c>
       <c r="AI6" s="1">
-        <v>12.66633761375227</v>
+        <v>12.66633761384741</v>
       </c>
       <c r="AJ6" s="1">
-        <v>117.664979390264</v>
+        <v>117.6649793903821</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -43657,19 +43657,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.8302928342095577</v>
+        <v>0.8302928343870388</v>
       </c>
       <c r="AG7" s="1">
         <v>0.2793607612312643</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.1386905375905989</v>
+        <v>0.1386905375963982</v>
       </c>
       <c r="AI7" s="1">
-        <v>13.90377027380061</v>
+        <v>13.90377027456179</v>
       </c>
       <c r="AJ7" s="1">
-        <v>44.39113737889426</v>
+        <v>44.39113737983872</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -43767,19 +43767,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.623279644760897</v>
+        <v>6.623279644849637</v>
       </c>
       <c r="AG8" s="1">
         <v>1.449780506617766</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.871700075171042</v>
+        <v>0.8717000751739417</v>
       </c>
       <c r="AI8" s="1">
-        <v>53.92434962543773</v>
+        <v>53.92434962581832</v>
       </c>
       <c r="AJ8" s="1">
-        <v>101.4258502775145</v>
+        <v>101.4258502779868</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -43877,19 +43877,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>93.84735032958676</v>
+        <v>93.84735033100662</v>
       </c>
       <c r="AG9" s="1">
         <v>1.810557546852972</v>
       </c>
       <c r="AH9" s="1">
-        <v>23.65231407820783</v>
+        <v>23.65231407825422</v>
       </c>
       <c r="AI9" s="1">
-        <v>271.9971374094771</v>
+        <v>271.9971374155666</v>
       </c>
       <c r="AJ9" s="1">
-        <v>726.2739232892717</v>
+        <v>726.2739232968274</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -43987,19 +43987,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.853004858472136</v>
+        <v>2.853004859182061</v>
       </c>
       <c r="AG10" s="1">
         <v>0.3241780648315591</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.1579276029086288</v>
+        <v>0.157927602931826</v>
       </c>
       <c r="AI10" s="1">
-        <v>9.166645754941824</v>
+        <v>9.166645757986553</v>
       </c>
       <c r="AJ10" s="1">
-        <v>49.66538104091763</v>
+        <v>49.66538104469548</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -44097,19 +44097,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>13.24917891612466</v>
+        <v>13.24917891896436</v>
       </c>
       <c r="AG11" s="1">
         <v>11.0516930075772</v>
       </c>
       <c r="AH11" s="1">
-        <v>1.790822530507251</v>
+        <v>1.790822530600039</v>
       </c>
       <c r="AI11" s="1">
-        <v>151.8335599093448</v>
+        <v>151.8335599215237</v>
       </c>
       <c r="AJ11" s="1">
-        <v>473.6780776120594</v>
+        <v>473.6780776271709</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -44207,19 +44207,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>24.30105304493667</v>
+        <v>24.30105304511415</v>
       </c>
       <c r="AG12" s="1">
         <v>15.25352649005849</v>
       </c>
       <c r="AH12" s="1">
-        <v>0.575488625607967</v>
+        <v>0.5754886256137663</v>
       </c>
       <c r="AI12" s="1">
-        <v>79.85045115854456</v>
+        <v>79.85045115930575</v>
       </c>
       <c r="AJ12" s="1">
-        <v>159.1787747873076</v>
+        <v>159.1787747882521</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -44355,7 +44355,7 @@
         <v>0.02176270820200443</v>
       </c>
       <c r="H14" s="1">
-        <v>0.1020441055297852</v>
+        <v>0.1020441129803658</v>
       </c>
       <c r="I14" s="1">
         <v>0.2192410826683044</v>
@@ -44427,19 +44427,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>58.13631211538453</v>
+        <v>58.1363121157395</v>
       </c>
       <c r="AG14" s="1">
         <v>28.00630620541905</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.0927972351988894</v>
+        <v>0.09279723521048798</v>
       </c>
       <c r="AI14" s="1">
-        <v>56.59254497700866</v>
+        <v>56.59254497853102</v>
       </c>
       <c r="AJ14" s="1">
-        <v>177.0858140619615</v>
+        <v>177.085814071301</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -44537,19 +44537,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>26.37059823828717</v>
+        <v>26.37059823970701</v>
       </c>
       <c r="AG15" s="1">
         <v>4.177643766158799</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.1840014176769988</v>
+        <v>0.1840014177233932</v>
       </c>
       <c r="AI15" s="1">
-        <v>15.98828831341716</v>
+        <v>15.98828831950662</v>
       </c>
       <c r="AJ15" s="1">
-        <v>68.85516919099608</v>
+        <v>68.85516919855179</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -44887,19 +44887,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.1882026791572571</v>
+        <v>0.1882026642560959</v>
       </c>
       <c r="C19" s="1">
-        <v>0.1515803784132004</v>
+        <v>0.1515803933143616</v>
       </c>
       <c r="D19" s="1">
-        <v>0.2451819181442261</v>
+        <v>0.2451819330453873</v>
       </c>
       <c r="E19" s="1">
-        <v>1.576820373535156</v>
+        <v>1.576820492744446</v>
       </c>
       <c r="F19" s="1">
-        <v>0.2147108167409897</v>
+        <v>0.2147108316421509</v>
       </c>
       <c r="G19" s="1">
         <v>1.508305311203003</v>
@@ -44908,7 +44908,7 @@
         <v>8.453075408935547</v>
       </c>
       <c r="I19" s="1">
-        <v>1.485718846321106</v>
+        <v>1.485718965530396</v>
       </c>
       <c r="J19" s="1">
         <v>0.5215446352958679</v>
@@ -44923,46 +44923,46 @@
         <v>3.228663921356201</v>
       </c>
       <c r="N19" s="1">
-        <v>0.1487772017717361</v>
+        <v>0.1487772166728973</v>
       </c>
       <c r="O19" s="1">
-        <v>0.3516896665096283</v>
+        <v>0.3516896963119507</v>
       </c>
       <c r="P19" s="1">
-        <v>1.079002380371094</v>
+        <v>1.079002499580383</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.9528480172157288</v>
+        <v>0.9528480768203735</v>
       </c>
       <c r="R19" s="1">
-        <v>8.680285453796387</v>
+        <v>8.680286407470703</v>
       </c>
       <c r="S19" s="1">
-        <v>11.56008434295654</v>
+        <v>11.56008529663086</v>
       </c>
       <c r="T19" s="1">
         <v>0.3400221467018127</v>
       </c>
       <c r="U19" s="1">
-        <v>0.5242977738380432</v>
+        <v>0.524297833442688</v>
       </c>
       <c r="V19" s="1">
         <v>0.5120071768760681</v>
       </c>
       <c r="W19" s="1">
-        <v>0.312827467918396</v>
+        <v>0.3128274977207184</v>
       </c>
       <c r="X19" s="1">
-        <v>0.05275711417198181</v>
+        <v>0.05275711789727211</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.7500360608100891</v>
+        <v>0.7500361204147339</v>
       </c>
       <c r="Z19" s="1">
-        <v>1.842840790748596</v>
+        <v>1.842840909957886</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.64427924156189</v>
+        <v>3.644279479980469</v>
       </c>
       <c r="AB19" s="1">
         <v>1.606935143470764</v>
@@ -44977,19 +44977,19 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>12.55384947276077</v>
+        <v>12.55385016978896</v>
       </c>
       <c r="AG19" s="1">
         <v>0.2652573597823271</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.4689983433763847</v>
+        <v>0.468998367106345</v>
       </c>
       <c r="AI19" s="1">
-        <v>52.1424584148963</v>
+        <v>52.14246147503676</v>
       </c>
       <c r="AJ19" s="1">
-        <v>127.0656852194579</v>
+        <v>127.0656919098082</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -45785,7 +45785,7 @@
         <v>0.06866148859262466</v>
       </c>
       <c r="H27" s="1">
-        <v>0.2925525009632111</v>
+        <v>0.2925525307655334</v>
       </c>
       <c r="I27" s="1">
         <v>0.1592688709497452</v>
@@ -45839,7 +45839,7 @@
         <v>0.2828063070774078</v>
       </c>
       <c r="Z27" s="1">
-        <v>0.1150419637560844</v>
+        <v>0.115041971206665</v>
       </c>
       <c r="AA27" s="1">
         <v>0.3486503064632416</v>
@@ -45857,19 +45857,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>0.6436007390445601</v>
+        <v>0.6436007447239561</v>
       </c>
       <c r="AG27" s="1">
         <v>1.156276156687667</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.3345514119393159</v>
+        <v>0.3345514121248932</v>
       </c>
       <c r="AI27" s="1">
-        <v>2.970280114639086</v>
+        <v>2.970280138996938</v>
       </c>
       <c r="AJ27" s="1">
-        <v>10.45800528522579</v>
+        <v>10.45800535270152</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -46317,28 +46317,28 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>40.78220079552557</v>
+        <v>40.78220078062441</v>
       </c>
       <c r="C32" s="1">
-        <v>6.243000915805169</v>
+        <v>6.24300093070633</v>
       </c>
       <c r="D32" s="1">
-        <v>10.93892875247548</v>
+        <v>10.93892876737664</v>
       </c>
       <c r="E32" s="1">
-        <v>88.92423716234043</v>
+        <v>88.92423728154972</v>
       </c>
       <c r="F32" s="1">
-        <v>17.95178574859165</v>
+        <v>17.95178576349281</v>
       </c>
       <c r="G32" s="1">
         <v>20.91597223945428</v>
       </c>
       <c r="H32" s="1">
-        <v>110.9115826031193</v>
+        <v>110.9115826403722</v>
       </c>
       <c r="I32" s="1">
-        <v>298.3827275380099</v>
+        <v>298.3827276572192</v>
       </c>
       <c r="J32" s="1">
         <v>13.60158329733531</v>
@@ -46353,46 +46353,46 @@
         <v>200.1785404794355</v>
       </c>
       <c r="N32" s="1">
-        <v>28.30115909554297</v>
+        <v>28.30115911044413</v>
       </c>
       <c r="O32" s="1">
-        <v>32.35474397461076</v>
+        <v>32.35474400441308</v>
       </c>
       <c r="P32" s="1">
-        <v>163.4488121932372</v>
+        <v>163.4488123124465</v>
       </c>
       <c r="Q32" s="1">
-        <v>96.66093167988583</v>
+        <v>96.66093173949048</v>
       </c>
       <c r="R32" s="1">
-        <v>54.24803142994642</v>
+        <v>54.24803238362074</v>
       </c>
       <c r="S32" s="1">
-        <v>49.63079071743414</v>
+        <v>49.63079167110845</v>
       </c>
       <c r="T32" s="1">
         <v>16.73404356441461</v>
       </c>
       <c r="U32" s="1">
-        <v>15.70561952947173</v>
+        <v>15.70561958907638</v>
       </c>
       <c r="V32" s="1">
         <v>10.69088167179143</v>
       </c>
       <c r="W32" s="1">
-        <v>15.83088055683766</v>
+        <v>15.83088058663998</v>
       </c>
       <c r="X32" s="1">
-        <v>14.65387397896848</v>
+        <v>14.65387398269377</v>
       </c>
       <c r="Y32" s="1">
-        <v>21.28051613643765</v>
+        <v>21.2805161960423</v>
       </c>
       <c r="Z32" s="1">
-        <v>16.71213666652329</v>
+        <v>16.71213679318316</v>
       </c>
       <c r="AA32" s="1">
-        <v>32.98802723689005</v>
+        <v>32.98802747530863</v>
       </c>
       <c r="AB32" s="1">
         <v>10.16676076705335</v>
@@ -46407,19 +46407,19 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>590.8592993897175</v>
+        <v>590.8593001010549</v>
       </c>
       <c r="AG32" s="1">
         <v>170.1241915221449</v>
       </c>
       <c r="AH32" s="1">
-        <v>40.24430543759966</v>
+        <v>40.24430546179719</v>
       </c>
       <c r="AI32" s="1">
-        <v>1188.577290005816</v>
+        <v>1188.577293127327</v>
       </c>
       <c r="AJ32" s="1">
-        <v>3891.513507233583</v>
+        <v>3891.513514044784</v>
       </c>
     </row>
   </sheetData>
@@ -46964,25 +46964,25 @@
         <v>1.719748854637146</v>
       </c>
       <c r="AD5" s="1">
-        <v>1.022903680801392</v>
+        <v>1.022903800010681</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>90.0259877950497</v>
+        <v>90.02598779729546</v>
       </c>
       <c r="AG5" s="1">
         <v>0.8977152443038352</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.703227931074397</v>
+        <v>0.703227931146973</v>
       </c>
       <c r="AI5" s="1">
-        <v>7.724116655367922</v>
+        <v>7.724116660018805</v>
       </c>
       <c r="AJ5" s="1">
-        <v>161.1595315020838</v>
+        <v>161.1595316282623</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -47080,19 +47080,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>58.05455525301467</v>
+        <v>58.05455525302344</v>
       </c>
       <c r="AG6" s="1">
         <v>0.1176208845910416</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.1288228535116553</v>
+        <v>0.1288228535119388</v>
       </c>
       <c r="AI6" s="1">
-        <v>4.460172443855732</v>
+        <v>4.460172443873899</v>
       </c>
       <c r="AJ6" s="1">
-        <v>72.38527555504319</v>
+        <v>72.38527555507044</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -47190,19 +47190,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.383096902817211</v>
+        <v>1.383096903097931</v>
       </c>
       <c r="AG7" s="1">
         <v>0.1466998915654541</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.256932505218386</v>
+        <v>0.256932505227458</v>
       </c>
       <c r="AI7" s="1">
-        <v>6.213734307539705</v>
+        <v>6.213734308121065</v>
       </c>
       <c r="AJ7" s="1">
-        <v>24.0280918016815</v>
+        <v>24.02809180255264</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -47300,19 +47300,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.957031218904622</v>
+        <v>4.957031218939712</v>
       </c>
       <c r="AG8" s="1">
         <v>0.3450164091296816</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.7120704239576803</v>
+        <v>0.7120704239588143</v>
       </c>
       <c r="AI8" s="1">
-        <v>19.5820427151982</v>
+        <v>19.58204271527087</v>
       </c>
       <c r="AJ8" s="1">
-        <v>41.40605608519169</v>
+        <v>41.40605608530058</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -47410,19 +47410,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>59.45170482496894</v>
+        <v>59.45170482524966</v>
       </c>
       <c r="AG9" s="1">
         <v>0.2459355605099968</v>
       </c>
       <c r="AH9" s="1">
-        <v>15.00041980856603</v>
+        <v>15.0004198085751</v>
       </c>
       <c r="AI9" s="1">
-        <v>83.26232554216701</v>
+        <v>83.26232554274837</v>
       </c>
       <c r="AJ9" s="1">
-        <v>268.8364946843533</v>
+        <v>268.8364946852245</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -47520,19 +47520,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.256127941854598</v>
+        <v>6.256127946346113</v>
       </c>
       <c r="AG10" s="1">
         <v>0.5929000486598768</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.966741314327639</v>
+        <v>0.9667413144727911</v>
       </c>
       <c r="AI10" s="1">
-        <v>9.419113291071524</v>
+        <v>9.419113300373288</v>
       </c>
       <c r="AJ10" s="1">
-        <v>60.9533142065277</v>
+        <v>60.95331422046613</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -47630,19 +47630,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>15.33829428813809</v>
+        <v>15.33829429038385</v>
       </c>
       <c r="AG11" s="1">
         <v>6.632748973171261</v>
       </c>
       <c r="AH11" s="1">
-        <v>2.350782431345125</v>
+        <v>2.350782431417701</v>
       </c>
       <c r="AI11" s="1">
-        <v>66.42872640586073</v>
+        <v>66.42872641051162</v>
       </c>
       <c r="AJ11" s="1">
-        <v>261.5612408698227</v>
+        <v>261.5612408767919</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -47740,19 +47740,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>29.72115914782862</v>
+        <v>29.72115914796898</v>
       </c>
       <c r="AG12" s="1">
         <v>13.3314668091384</v>
       </c>
       <c r="AH12" s="1">
-        <v>0.4241842847573308</v>
+        <v>0.4241842847618668</v>
       </c>
       <c r="AI12" s="1">
-        <v>46.34079880063469</v>
+        <v>46.34079880092537</v>
       </c>
       <c r="AJ12" s="1">
-        <v>126.3536506374008</v>
+        <v>126.3536506378364</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -47811,7 +47811,7 @@
         <v>1.684039115905762</v>
       </c>
       <c r="S13" s="1">
-        <v>0.5322956442832947</v>
+        <v>0.5322957038879395</v>
       </c>
       <c r="T13" s="1">
         <v>0.1540391892194748</v>
@@ -47850,19 +47850,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>26.44911633436876</v>
+        <v>26.44911633886028</v>
       </c>
       <c r="AG13" s="1">
         <v>29.72902207468988</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.4161812126611644</v>
+        <v>0.4161812128063164</v>
       </c>
       <c r="AI13" s="1">
-        <v>79.86443930997544</v>
+        <v>79.86443931927721</v>
       </c>
       <c r="AJ13" s="1">
-        <v>204.1995105502147</v>
+        <v>204.1995106237578</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -47960,19 +47960,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>56.91778961621478</v>
+        <v>56.91778961733766</v>
       </c>
       <c r="AG14" s="1">
         <v>22.75691863942676</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.191717783868286</v>
+        <v>0.191717783904574</v>
       </c>
       <c r="AI14" s="1">
-        <v>31.50476863846861</v>
+        <v>31.50476864079405</v>
       </c>
       <c r="AJ14" s="1">
-        <v>150.070579039484</v>
+        <v>150.0705790429686</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -48070,19 +48070,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.43124895396694</v>
+        <v>23.43124895508982</v>
       </c>
       <c r="AG15" s="1">
         <v>2.414602457954663</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.1444772224684147</v>
+        <v>0.1444772225047027</v>
       </c>
       <c r="AI15" s="1">
-        <v>6.632217456170507</v>
+        <v>6.632217458495948</v>
       </c>
       <c r="AJ15" s="1">
-        <v>47.00654421076414</v>
+        <v>47.00654421424875</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -48486,7 +48486,7 @@
         <v>0.2342429757118225</v>
       </c>
       <c r="X19" s="1">
-        <v>0.03978041186928749</v>
+        <v>0.03978040814399719</v>
       </c>
       <c r="Y19" s="1">
         <v>0.681387722492218</v>
@@ -48510,19 +48510,19 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.694730025571211</v>
+        <v>9.694730013734455</v>
       </c>
       <c r="AG19" s="1">
         <v>0.09376820254807142</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.3410308623742768</v>
+        <v>0.3410308623649136</v>
       </c>
       <c r="AI19" s="1">
-        <v>19.6511825660248</v>
+        <v>19.65118255408822</v>
       </c>
       <c r="AJ19" s="1">
-        <v>67.08703951359547</v>
+        <v>67.08703948608749</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -49318,10 +49318,10 @@
         <v>0.05721883103251457</v>
       </c>
       <c r="H27" s="1">
-        <v>0.07124388217926025</v>
+        <v>0.07124388962984085</v>
       </c>
       <c r="I27" s="1">
-        <v>0.02466615289449692</v>
+        <v>0.02466615475714207</v>
       </c>
       <c r="J27" s="1">
         <v>0.1034747287631035</v>
@@ -49345,13 +49345,13 @@
         <v>0.1614363789558411</v>
       </c>
       <c r="Q27" s="1">
-        <v>0.2034459114074707</v>
+        <v>0.2034459263086319</v>
       </c>
       <c r="R27" s="1">
         <v>0.6228083968162537</v>
       </c>
       <c r="S27" s="1">
-        <v>0.1721371114253998</v>
+        <v>0.172137126326561</v>
       </c>
       <c r="T27" s="1">
         <v>0.09734194725751877</v>
@@ -49363,7 +49363,7 @@
         <v>0.07704301923513412</v>
       </c>
       <c r="W27" s="1">
-        <v>0.06737400591373444</v>
+        <v>0.06737401336431503</v>
       </c>
       <c r="X27" s="1">
         <v>0.0192121472209692</v>
@@ -49378,7 +49378,7 @@
         <v>0.3696578443050385</v>
       </c>
       <c r="AB27" s="1">
-        <v>0.06357204169034958</v>
+        <v>0.06357204914093018</v>
       </c>
       <c r="AC27" s="1">
         <v>0.154828205704689</v>
@@ -49390,19 +49390,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>0.6143752844006307</v>
+        <v>0.6143753023666914</v>
       </c>
       <c r="AG27" s="1">
         <v>0.76910752341605</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.309161797978839</v>
+        <v>0.309161798559447</v>
       </c>
       <c r="AI27" s="1">
-        <v>1.408011168259236</v>
+        <v>1.408011205466298</v>
       </c>
       <c r="AJ27" s="1">
-        <v>7.627737413560679</v>
+        <v>7.627737523331119</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -49868,10 +49868,10 @@
         <v>13.24154574621934</v>
       </c>
       <c r="H32" s="1">
-        <v>19.91862307256088</v>
+        <v>19.91862308001146</v>
       </c>
       <c r="I32" s="1">
-        <v>37.00396890424736</v>
+        <v>37.00396890611</v>
       </c>
       <c r="J32" s="1">
         <v>28.34920203598449</v>
@@ -49895,13 +49895,13 @@
         <v>68.01535982871428</v>
       </c>
       <c r="Q32" s="1">
-        <v>65.26189103676006</v>
+        <v>65.26189105166122</v>
       </c>
       <c r="R32" s="1">
         <v>46.90927326539531</v>
       </c>
       <c r="S32" s="1">
-        <v>24.1843889754964</v>
+        <v>24.18438905000221</v>
       </c>
       <c r="T32" s="1">
         <v>12.91129910526797</v>
@@ -49913,10 +49913,10 @@
         <v>9.185514957236592</v>
       </c>
       <c r="W32" s="1">
-        <v>12.17311508220155</v>
+        <v>12.17311508965213</v>
       </c>
       <c r="X32" s="1">
-        <v>11.51480741222622</v>
+        <v>11.51480740850093</v>
       </c>
       <c r="Y32" s="1">
         <v>19.99838102585636</v>
@@ -49928,31 +49928,31 @@
         <v>28.84961669845507</v>
       </c>
       <c r="AB32" s="1">
-        <v>7.988760698062833</v>
+        <v>7.988760705513414</v>
       </c>
       <c r="AC32" s="1">
         <v>44.96997489989735</v>
       </c>
       <c r="AD32" s="1">
-        <v>15.86784329253715</v>
+        <v>15.86784341174643</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>457.0708086893894</v>
+        <v>457.0708087119846</v>
       </c>
       <c r="AG32" s="1">
         <v>99.72835367468461</v>
       </c>
       <c r="AH32" s="1">
-        <v>30.88718151231188</v>
+        <v>30.88718151341526</v>
       </c>
       <c r="AI32" s="1">
-        <v>446.9469800333343</v>
+        <v>446.9469800927054</v>
       </c>
       <c r="AJ32" s="1">
-        <v>2053.510956234602</v>
+        <v>2053.510956546777</v>
       </c>
     </row>
   </sheetData>
@@ -50503,19 +50503,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>244.1537710031418</v>
+        <v>244.1537710023452</v>
       </c>
       <c r="AG5" s="1">
         <v>1.212766753729374</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.254723228252569</v>
+        <v>0.2547232282266187</v>
       </c>
       <c r="AI5" s="1">
-        <v>12.93467708153832</v>
+        <v>12.93467707990806</v>
       </c>
       <c r="AJ5" s="1">
-        <v>342.1899542647681</v>
+        <v>342.1899542623153</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -50613,19 +50613,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>177.9606992431171</v>
+        <v>177.9606992430175</v>
       </c>
       <c r="AG6" s="1">
         <v>0.8343066496136774</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.4983578503419903</v>
+        <v>0.4983578503387466</v>
       </c>
       <c r="AI6" s="1">
-        <v>14.30301382104512</v>
+        <v>14.30301382084134</v>
       </c>
       <c r="AJ6" s="1">
-        <v>256.7375152963107</v>
+        <v>256.7375152960041</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -50708,7 +50708,7 @@
         <v>0.106372058391571</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.08454292267560959</v>
+        <v>0.08454291522502899</v>
       </c>
       <c r="AB7" s="1">
         <v>0.0671379566192627</v>
@@ -50723,19 +50723,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.371064191692573</v>
+        <v>1.371064191294276</v>
       </c>
       <c r="AG7" s="1">
         <v>0.5366965517593162</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.1968402295117415</v>
+        <v>0.1968402294987664</v>
       </c>
       <c r="AI7" s="1">
-        <v>14.15890651844967</v>
+        <v>14.15890651763454</v>
       </c>
       <c r="AJ7" s="1">
-        <v>61.28328532582874</v>
+        <v>61.28328531715175</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -50833,19 +50833,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>12.38786173981402</v>
+        <v>12.38786173961488</v>
       </c>
       <c r="AG8" s="1">
         <v>2.485034405630319</v>
       </c>
       <c r="AH8" s="1">
-        <v>1.787493474840604</v>
+        <v>1.787493474834116</v>
       </c>
       <c r="AI8" s="1">
-        <v>53.85809866432357</v>
+        <v>53.85809866391602</v>
       </c>
       <c r="AJ8" s="1">
-        <v>140.4325415905921</v>
+        <v>140.4325415899789</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -50943,19 +50943,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>206.0300364477845</v>
+        <v>206.0300364445981</v>
       </c>
       <c r="AG9" s="1">
         <v>3.807046325743789</v>
       </c>
       <c r="AH9" s="1">
-        <v>52.08963528537822</v>
+        <v>52.08963528527443</v>
       </c>
       <c r="AI9" s="1">
-        <v>286.3672978830783</v>
+        <v>286.3672978765573</v>
       </c>
       <c r="AJ9" s="1">
-        <v>1099.232793805964</v>
+        <v>1099.232793796153</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -50981,7 +50981,7 @@
         <v>0.7716785669326782</v>
       </c>
       <c r="H10" s="1">
-        <v>1.872191429138184</v>
+        <v>1.872191309928894</v>
       </c>
       <c r="I10" s="1">
         <v>16.51297378540039</v>
@@ -51053,19 +51053,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.524601470473801</v>
+        <v>6.524601467287425</v>
       </c>
       <c r="AG10" s="1">
         <v>1.040182750108394</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.3921669489375431</v>
+        <v>0.392166948833742</v>
       </c>
       <c r="AI10" s="1">
-        <v>11.03168896510867</v>
+        <v>11.03168895858764</v>
       </c>
       <c r="AJ10" s="1">
-        <v>95.07714238524019</v>
+        <v>95.07714225621969</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -51163,19 +51163,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>12.39778403593179</v>
+        <v>12.3977840343386</v>
       </c>
       <c r="AG11" s="1">
         <v>11.68235411435515</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.8387374259043704</v>
+        <v>0.8387374258524698</v>
       </c>
       <c r="AI11" s="1">
-        <v>126.4533354386553</v>
+        <v>126.4533354353947</v>
       </c>
       <c r="AJ11" s="1">
-        <v>372.1865228470361</v>
+        <v>372.1865228421305</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -51383,19 +51383,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>94.26868583171618</v>
+        <v>94.26868581897068</v>
       </c>
       <c r="AG13" s="1">
         <v>123.5102571051722</v>
       </c>
       <c r="AH13" s="1">
-        <v>2.127489715335312</v>
+        <v>2.127489714920107</v>
       </c>
       <c r="AI13" s="1">
-        <v>248.3012329039496</v>
+        <v>248.3012328778654</v>
       </c>
       <c r="AJ13" s="1">
-        <v>809.1118970299767</v>
+        <v>809.111896990732</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -51463,7 +51463,7 @@
         <v>0.2157925069332123</v>
       </c>
       <c r="V14" s="1">
-        <v>0.04623772576451302</v>
+        <v>0.04623772203922272</v>
       </c>
       <c r="W14" s="1">
         <v>0.03767005354166031</v>
@@ -51493,19 +51493,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>138.3248823204961</v>
+        <v>138.324882318903</v>
       </c>
       <c r="AG14" s="1">
         <v>57.24574850222593</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.1834508951009942</v>
+        <v>0.1834508950490936</v>
       </c>
       <c r="AI14" s="1">
-        <v>65.87165347372287</v>
+        <v>65.87165347046235</v>
       </c>
       <c r="AJ14" s="1">
-        <v>342.8541732839415</v>
+        <v>342.8541732753107</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -51561,7 +51561,7 @@
         <v>5.26238489151001</v>
       </c>
       <c r="R15" s="1">
-        <v>1.140663385391235</v>
+        <v>1.140663266181946</v>
       </c>
       <c r="S15" s="1">
         <v>1.042299509048462</v>
@@ -51603,19 +51603,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>59.1499473292489</v>
+        <v>59.14994732606252</v>
       </c>
       <c r="AG15" s="1">
         <v>9.960778403632371</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.3474120848342828</v>
+        <v>0.3474120847304817</v>
       </c>
       <c r="AI15" s="1">
-        <v>17.12785380317009</v>
+        <v>17.12785379664905</v>
       </c>
       <c r="AJ15" s="1">
-        <v>131.1457585523449</v>
+        <v>131.1457584233245</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -52007,7 +52007,7 @@
         <v>22.13126182556152</v>
       </c>
       <c r="T19" s="1">
-        <v>0.9662781357765198</v>
+        <v>0.9662781953811646</v>
       </c>
       <c r="U19" s="1">
         <v>2.968778848648071</v>
@@ -52043,19 +52043,19 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>27.7315715201904</v>
+        <v>27.7315715981781</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.7274586089805248</v>
+        <v>0.7274586736973756</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.9918057146699311</v>
+        <v>0.9918057251882519</v>
       </c>
       <c r="AI19" s="1">
-        <v>55.61641038284807</v>
+        <v>55.61641045043657</v>
       </c>
       <c r="AJ19" s="1">
-        <v>201.1754129436818</v>
+        <v>201.1754132240978</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -52839,7 +52839,7 @@
         <v>0.008239807561039925</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01394595392048359</v>
+        <v>0.01394595298916101</v>
       </c>
       <c r="E27" s="1">
         <v>0.195863276720047</v>
@@ -52851,10 +52851,10 @@
         <v>0.05334356799721718</v>
       </c>
       <c r="H27" s="1">
-        <v>0.3028669357299805</v>
+        <v>0.3028669059276581</v>
       </c>
       <c r="I27" s="1">
-        <v>0.1508369892835617</v>
+        <v>0.1508369743824005</v>
       </c>
       <c r="J27" s="1">
         <v>0.05900520458817482</v>
@@ -52878,7 +52878,7 @@
         <v>0.193461537361145</v>
       </c>
       <c r="Q27" s="1">
-        <v>0.3757160902023315</v>
+        <v>0.3757160604000092</v>
       </c>
       <c r="R27" s="1">
         <v>0.871194064617157</v>
@@ -52890,7 +52890,7 @@
         <v>0.1789522618055344</v>
       </c>
       <c r="U27" s="1">
-        <v>0.4202459156513214</v>
+        <v>0.420245885848999</v>
       </c>
       <c r="V27" s="1">
         <v>0.112274095416069</v>
@@ -52923,19 +52923,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>0.7774257528343193</v>
+        <v>0.7774257400888168</v>
       </c>
       <c r="AG27" s="1">
         <v>2.563493455968747</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.4356504044133201</v>
+        <v>0.4356504039981157</v>
       </c>
       <c r="AI27" s="1">
-        <v>1.778688670867117</v>
+        <v>1.778688644782969</v>
       </c>
       <c r="AJ27" s="1">
-        <v>12.25788690125843</v>
+        <v>12.25788675677412</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -53389,7 +53389,7 @@
         <v>12.86259513768891</v>
       </c>
       <c r="D32" s="1">
-        <v>14.41461757329671</v>
+        <v>14.41461757236539</v>
       </c>
       <c r="E32" s="1">
         <v>76.20481784967706</v>
@@ -53401,10 +53401,10 @@
         <v>25.36226929945406</v>
       </c>
       <c r="H32" s="1">
-        <v>176.1452381825075</v>
+        <v>176.1452380334958</v>
       </c>
       <c r="I32" s="1">
-        <v>462.2425682916219</v>
+        <v>462.2425682767207</v>
       </c>
       <c r="J32" s="1">
         <v>33.19912569777807</v>
@@ -53428,22 +53428,22 @@
         <v>169.5395721122622</v>
       </c>
       <c r="Q32" s="1">
-        <v>242.7485291650519</v>
+        <v>242.7485291352496</v>
       </c>
       <c r="R32" s="1">
-        <v>135.2276407629251</v>
+        <v>135.2276406437159</v>
       </c>
       <c r="S32" s="1">
         <v>93.47857989929616</v>
       </c>
       <c r="T32" s="1">
-        <v>48.59613900980912</v>
+        <v>48.59613906941377</v>
       </c>
       <c r="U32" s="1">
-        <v>91.33610433433205</v>
+        <v>91.33610430452973</v>
       </c>
       <c r="V32" s="1">
-        <v>31.50447115162387</v>
+        <v>31.50447114789858</v>
       </c>
       <c r="W32" s="1">
         <v>36.12499706610106</v>
@@ -53458,7 +53458,7 @@
         <v>43.62240019487217</v>
       </c>
       <c r="AA32" s="1">
-        <v>52.64276550523937</v>
+        <v>52.64276549778879</v>
       </c>
       <c r="AB32" s="1">
         <v>26.48019437491894</v>
@@ -53473,19 +53473,19 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1294.971152737497</v>
+        <v>1294.971152775755</v>
       </c>
       <c r="AG32" s="1">
-        <v>413.2425309209078</v>
+        <v>413.2425309856247</v>
       </c>
       <c r="AH32" s="1">
-        <v>88.58695330441124</v>
+        <v>88.58695331363529</v>
       </c>
       <c r="AI32" s="1">
-        <v>1247.083416949714</v>
+        <v>1247.083416935993</v>
       </c>
       <c r="AJ32" s="1">
-        <v>5980.095416432448</v>
+        <v>5980.095416235698</v>
       </c>
     </row>
   </sheetData>
@@ -61102,19 +61102,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>63.21858187711226</v>
+        <v>63.21858187731747</v>
       </c>
       <c r="AG5" s="1">
         <v>0.1798585136844222</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.06908756831360542</v>
+        <v>0.06908756832043249</v>
       </c>
       <c r="AI5" s="1">
-        <v>4.168593108554291</v>
+        <v>4.168593109071627</v>
       </c>
       <c r="AJ5" s="1">
-        <v>90.81478237530472</v>
+        <v>90.81478237603407</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -61212,19 +61212,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>29.12703706300223</v>
+        <v>29.12703706300303</v>
       </c>
       <c r="AG6" s="1">
         <v>0.09085101893488946</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.04144291991200023</v>
+        <v>0.04144291991202689</v>
       </c>
       <c r="AI6" s="1">
-        <v>2.601594489120409</v>
+        <v>2.601594489122429</v>
       </c>
       <c r="AJ6" s="1">
-        <v>36.99612068454895</v>
+        <v>36.99612068455179</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -61322,19 +61322,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.182096913542562</v>
+        <v>1.182096913747764</v>
       </c>
       <c r="AG7" s="1">
         <v>0.3264012301322886</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.1997934238916817</v>
+        <v>0.1997934238985088</v>
       </c>
       <c r="AI7" s="1">
-        <v>5.529825040361223</v>
+        <v>5.529825040878558</v>
       </c>
       <c r="AJ7" s="1">
-        <v>29.77193660328261</v>
+        <v>29.77193660401198</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -61432,19 +61432,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>27.80021861843309</v>
+        <v>27.8002186186383</v>
       </c>
       <c r="AG8" s="1">
         <v>6.882015998429983</v>
       </c>
       <c r="AH8" s="1">
-        <v>2.90368497188495</v>
+        <v>2.903684971891777</v>
       </c>
       <c r="AI8" s="1">
-        <v>49.49802934125733</v>
+        <v>49.49802934177466</v>
       </c>
       <c r="AJ8" s="1">
-        <v>176.2982732218009</v>
+        <v>176.2982732225302</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -61542,19 +61542,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>47.06765169767947</v>
+        <v>47.06765169808988</v>
       </c>
       <c r="AG9" s="1">
         <v>1.017885924027641</v>
       </c>
       <c r="AH9" s="1">
-        <v>11.53496831500291</v>
+        <v>11.53496831501656</v>
       </c>
       <c r="AI9" s="1">
-        <v>77.22079986207767</v>
+        <v>77.22079986311233</v>
       </c>
       <c r="AJ9" s="1">
-        <v>300.6892987852283</v>
+        <v>300.6892987866871</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -61580,7 +61580,7 @@
         <v>0.6728060245513916</v>
       </c>
       <c r="H10" s="1">
-        <v>3.381959199905396</v>
+        <v>3.381959438323975</v>
       </c>
       <c r="I10" s="1">
         <v>3.441825866699219</v>
@@ -61652,19 +61652,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.132389616279522</v>
+        <v>4.132389617921143</v>
       </c>
       <c r="AG10" s="1">
         <v>0.9513444241215879</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.3316492997502918</v>
+        <v>0.3316492998049084</v>
       </c>
       <c r="AI10" s="1">
-        <v>6.034199309849348</v>
+        <v>6.034199313988034</v>
       </c>
       <c r="AJ10" s="1">
-        <v>40.77992089525848</v>
+        <v>40.77992113951198</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -61762,19 +61762,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.147844506711551</v>
+        <v>7.147844507121956</v>
       </c>
       <c r="AG11" s="1">
         <v>5.374750975336411</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.2812535988685476</v>
+        <v>0.2812535988822017</v>
       </c>
       <c r="AI11" s="1">
-        <v>45.03708485301889</v>
+        <v>45.03708485405355</v>
       </c>
       <c r="AJ11" s="1">
-        <v>104.6723877974667</v>
+        <v>104.6723877989255</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -61872,19 +61872,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>12.50076835114688</v>
+        <v>12.50076835117253</v>
       </c>
       <c r="AG12" s="1">
         <v>8.502474746410988</v>
       </c>
       <c r="AH12" s="1">
-        <v>0.1204247410071594</v>
+        <v>0.1204247410080128</v>
       </c>
       <c r="AI12" s="1">
-        <v>23.52389296224301</v>
+        <v>23.52389296230767</v>
       </c>
       <c r="AJ12" s="1">
-        <v>60.25197282273835</v>
+        <v>60.25197282282953</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -61982,19 +61982,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>39.03882979884119</v>
+        <v>39.03882980048282</v>
       </c>
       <c r="AG13" s="1">
         <v>47.3710540946593</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.2160516268182903</v>
+        <v>0.2160516268729068</v>
       </c>
       <c r="AI13" s="1">
-        <v>89.68558132213163</v>
+        <v>89.68558132627031</v>
       </c>
       <c r="AJ13" s="1">
-        <v>224.1445745435724</v>
+        <v>224.1445745494074</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -62092,19 +62092,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.32021917183166</v>
+        <v>16.32021917184449</v>
       </c>
       <c r="AG14" s="1">
         <v>8.868352474519899</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.002988414929640893</v>
+        <v>0.002988414930067584</v>
       </c>
       <c r="AI14" s="1">
-        <v>8.928400536537954</v>
+        <v>8.928400536570287</v>
       </c>
       <c r="AJ14" s="1">
-        <v>37.94487974896867</v>
+        <v>37.94487974901426</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -62202,19 +62202,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>24.94742461624967</v>
+        <v>24.94742461707048</v>
       </c>
       <c r="AG15" s="1">
         <v>4.252199048551313</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.1172821748043971</v>
+        <v>0.1172821748317054</v>
       </c>
       <c r="AI15" s="1">
-        <v>9.19907300749148</v>
+        <v>9.199073009560824</v>
       </c>
       <c r="AJ15" s="1">
-        <v>56.25044262821525</v>
+        <v>56.25044263113271</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -62552,58 +62552,58 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.05827445909380913</v>
+        <v>0.05827445164322853</v>
       </c>
       <c r="C19" s="1">
-        <v>0.1951828598976135</v>
+        <v>0.1951828449964523</v>
       </c>
       <c r="D19" s="1">
-        <v>0.2928408980369568</v>
+        <v>0.2928408682346344</v>
       </c>
       <c r="E19" s="1">
-        <v>0.3016786277294159</v>
+        <v>0.3016785979270935</v>
       </c>
       <c r="F19" s="1">
         <v>0.01075989380478859</v>
       </c>
       <c r="G19" s="1">
-        <v>1.443044066429138</v>
+        <v>1.443043947219849</v>
       </c>
       <c r="H19" s="1">
-        <v>17.26696586608887</v>
+        <v>17.26696395874023</v>
       </c>
       <c r="I19" s="1">
-        <v>0.4684700667858124</v>
+        <v>0.46847003698349</v>
       </c>
       <c r="J19" s="1">
-        <v>0.9421271085739136</v>
+        <v>0.9421270489692688</v>
       </c>
       <c r="K19" s="1">
-        <v>0.6954599022865295</v>
+        <v>0.6954598426818848</v>
       </c>
       <c r="L19" s="1">
         <v>0.0859091654419899</v>
       </c>
       <c r="M19" s="1">
-        <v>0.4186562597751617</v>
+        <v>0.4186562299728394</v>
       </c>
       <c r="N19" s="1">
-        <v>0.006001877598464489</v>
+        <v>0.006001877132803202</v>
       </c>
       <c r="O19" s="1">
-        <v>0.1800135672092438</v>
+        <v>0.1800135523080826</v>
       </c>
       <c r="P19" s="1">
-        <v>0.6100440621376038</v>
+        <v>0.610044002532959</v>
       </c>
       <c r="Q19" s="1">
         <v>0.6543375253677368</v>
       </c>
       <c r="R19" s="1">
-        <v>5.322405338287354</v>
+        <v>5.322404861450195</v>
       </c>
       <c r="S19" s="1">
-        <v>6.467801094055176</v>
+        <v>6.467800617218018</v>
       </c>
       <c r="T19" s="1">
         <v>0.2380516231060028</v>
@@ -62612,49 +62612,49 @@
         <v>0.3162258863449097</v>
       </c>
       <c r="V19" s="1">
-        <v>0.2524081766605377</v>
+        <v>0.2524081468582153</v>
       </c>
       <c r="W19" s="1">
-        <v>0.1861325800418854</v>
+        <v>0.186132550239563</v>
       </c>
       <c r="X19" s="1">
         <v>0.0306763369590044</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.7906197905540466</v>
+        <v>0.7906196713447571</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.813545823097229</v>
+        <v>0.8135457634925842</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.798564434051514</v>
+        <v>2.798564195632935</v>
       </c>
       <c r="AB19" s="1">
-        <v>1.029544949531555</v>
+        <v>1.029544830322266</v>
       </c>
       <c r="AC19" s="1">
         <v>2.011811256408691</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.9764540195465088</v>
+        <v>0.976453959941864</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.2988979203831</v>
+        <v>7.298897458931854</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.1569041345287264</v>
+        <v>0.1569041152637477</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.2768014250503751</v>
+        <v>0.2768014054475572</v>
       </c>
       <c r="AI19" s="1">
-        <v>17.86852496571031</v>
+        <v>17.86852386200023</v>
       </c>
       <c r="AJ19" s="1">
-        <v>70.46513596057397</v>
+        <v>70.46513038491973</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -63480,10 +63480,10 @@
         <v>0.2051584869623184</v>
       </c>
       <c r="R27" s="1">
-        <v>0.4263831675052643</v>
+        <v>0.4263831973075867</v>
       </c>
       <c r="S27" s="1">
-        <v>0.166847288608551</v>
+        <v>0.1668473035097122</v>
       </c>
       <c r="T27" s="1">
         <v>0.08945551514625549</v>
@@ -63522,19 +63522,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>0.4128767894154578</v>
+        <v>0.4128767959819412</v>
       </c>
       <c r="AG27" s="1">
         <v>0.8545974648191006</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.242202663259711</v>
+        <v>0.2422026634781771</v>
       </c>
       <c r="AI27" s="1">
-        <v>1.247906247363936</v>
+        <v>1.247906263918675</v>
       </c>
       <c r="AJ27" s="1">
-        <v>6.459772578106767</v>
+        <v>6.459772646149938</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -63982,58 +63982,58 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>11.25957233699592</v>
+        <v>11.25957232954534</v>
       </c>
       <c r="C32" s="1">
-        <v>7.854453582040151</v>
+        <v>7.854453567138989</v>
       </c>
       <c r="D32" s="1">
-        <v>12.92418467137031</v>
+        <v>12.92418464156799</v>
       </c>
       <c r="E32" s="1">
-        <v>16.75605958711822</v>
+        <v>16.75605955731589</v>
       </c>
       <c r="F32" s="1">
         <v>0.8718552404861839</v>
       </c>
       <c r="G32" s="1">
-        <v>19.71197129157372</v>
+        <v>19.71197117236443</v>
       </c>
       <c r="H32" s="1">
-        <v>222.6767937848344</v>
+        <v>222.6767921159044</v>
       </c>
       <c r="I32" s="1">
-        <v>92.84624915347194</v>
+        <v>92.84624912366962</v>
       </c>
       <c r="J32" s="1">
-        <v>24.23158741922816</v>
+        <v>24.23158735962352</v>
       </c>
       <c r="K32" s="1">
-        <v>46.00045865408538</v>
+        <v>46.00045859448073</v>
       </c>
       <c r="L32" s="1">
         <v>5.301129253581166</v>
       </c>
       <c r="M32" s="1">
-        <v>25.66439853636621</v>
+        <v>25.66439850656388</v>
       </c>
       <c r="N32" s="1">
-        <v>1.121827110249797</v>
+        <v>1.121827109784135</v>
       </c>
       <c r="O32" s="1">
-        <v>16.24685182546636</v>
+        <v>16.2468518105652</v>
       </c>
       <c r="P32" s="1">
-        <v>91.41338535794057</v>
+        <v>91.41338529833592</v>
       </c>
       <c r="Q32" s="1">
         <v>64.85383803257719</v>
       </c>
       <c r="R32" s="1">
-        <v>32.92142627947032</v>
+        <v>32.92142583243549</v>
       </c>
       <c r="S32" s="1">
-        <v>27.30412211176008</v>
+        <v>27.30412164982408</v>
       </c>
       <c r="T32" s="1">
         <v>11.49290057120379</v>
@@ -64042,49 +64042,49 @@
         <v>9.378050138358958</v>
       </c>
       <c r="V32" s="1">
-        <v>5.197060074220644</v>
+        <v>5.197060044418322</v>
       </c>
       <c r="W32" s="1">
-        <v>9.403733256389387</v>
+        <v>9.403733226587065</v>
       </c>
       <c r="X32" s="1">
         <v>8.488943729171297</v>
       </c>
       <c r="Y32" s="1">
-        <v>22.01607790822163</v>
+        <v>22.01607778901234</v>
       </c>
       <c r="Z32" s="1">
-        <v>7.258026889932808</v>
+        <v>7.258026830328163</v>
       </c>
       <c r="AA32" s="1">
-        <v>25.03063057432882</v>
+        <v>25.03063033591025</v>
       </c>
       <c r="AB32" s="1">
-        <v>6.434068578819279</v>
+        <v>6.434068459609989</v>
       </c>
       <c r="AC32" s="1">
         <v>34.40969046344981</v>
       </c>
       <c r="AD32" s="1">
-        <v>9.732190896989778</v>
+        <v>9.732190837385133</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>335.79627654985</v>
+        <v>335.796276100545</v>
       </c>
       <c r="AG32" s="1">
-        <v>108.834995733186</v>
+        <v>108.834995713921</v>
       </c>
       <c r="AH32" s="1">
-        <v>23.42971696205973</v>
+        <v>23.42971694286102</v>
       </c>
       <c r="AI32" s="1">
-        <v>400.3111821779711</v>
+        <v>400.3111811048828</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1737.173708732769</v>
+        <v>1737.173703483409</v>
       </c>
     </row>
   </sheetData>
